--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1140730.086987758</v>
+        <v>1140020.917213451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155862.3493423645</v>
+        <v>153896.2422463824</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058536</v>
+        <v>632041.451805854</v>
       </c>
     </row>
     <row r="9">
@@ -744,58 +744,58 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.817899082923868</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G5" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.81789908292397</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.199249640013591</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.199249640013591</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1017,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="S6" t="n">
-        <v>3.199249640013591</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1169,13 +1169,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1776483877525582</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.1776483877525573</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.097658594934726</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="I9" t="n">
         <v>3.516869431124803</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="F11" t="n">
-        <v>188.2377854165522</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.2377854165522</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>169.2219024907745</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.24867564227706</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>17.15336415818046</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.73451669048091</v>
       </c>
       <c r="T11" t="n">
-        <v>44.65843145023546</v>
+        <v>44.6584314502355</v>
       </c>
       <c r="U11" t="n">
-        <v>72.33726223721334</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>48.80414770745031</v>
+        <v>160.0830760550383</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>38.17544574101663</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.2377854165522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.704763753637309</v>
+        <v>9.704763753637337</v>
       </c>
       <c r="D12" t="n">
-        <v>67.05277164256374</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>117.5114766865008</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.79088422295305</v>
+        <v>13.79088422295308</v>
       </c>
       <c r="T12" t="n">
-        <v>37.16046115686544</v>
+        <v>37.16046115686547</v>
       </c>
       <c r="U12" t="n">
-        <v>59.4147294735284</v>
+        <v>59.41472947352842</v>
       </c>
       <c r="V12" t="n">
-        <v>62.83553314467363</v>
+        <v>62.83553314467366</v>
       </c>
       <c r="W12" t="n">
-        <v>88.89119580628298</v>
+        <v>88.89119580628301</v>
       </c>
       <c r="X12" t="n">
-        <v>39.49952666874199</v>
+        <v>39.49952666874202</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.570898363297</v>
+        <v>45.57089836329703</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.64393163552143</v>
+        <v>25.64393163552147</v>
       </c>
       <c r="S13" t="n">
-        <v>57.635260268406</v>
+        <v>57.63526026840603</v>
       </c>
       <c r="T13" t="n">
-        <v>45.95077043248349</v>
+        <v>45.95077043248352</v>
       </c>
       <c r="U13" t="n">
         <v>110.8432023861718</v>
       </c>
       <c r="V13" t="n">
-        <v>67.29562741372129</v>
+        <v>67.29562741372132</v>
       </c>
       <c r="W13" t="n">
         <v>112.4973193186067</v>
       </c>
       <c r="X13" t="n">
-        <v>44.10606763751392</v>
+        <v>44.10606763751395</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.32788504343981</v>
+        <v>39.32788504343984</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>172.3921096104502</v>
       </c>
       <c r="D14" t="n">
-        <v>159.9587718714987</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>169.2219024907745</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.65843145023547</v>
+        <v>44.6584314502355</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.33726223721337</v>
       </c>
       <c r="V14" t="n">
-        <v>143.0663958384234</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>28.46816234997063</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.9693265239775</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>83.66570643932994</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.704763753637309</v>
+        <v>9.704763753637337</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>27.37073202117697</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>188.2377854165522</v>
       </c>
       <c r="T15" t="n">
-        <v>37.16046115686544</v>
+        <v>37.16046115686547</v>
       </c>
       <c r="U15" t="n">
-        <v>59.4147294735284</v>
+        <v>59.41472947352842</v>
       </c>
       <c r="V15" t="n">
-        <v>62.83553314467363</v>
+        <v>62.83553314467366</v>
       </c>
       <c r="W15" t="n">
-        <v>188.2377854165522</v>
+        <v>88.89119580628301</v>
       </c>
       <c r="X15" t="n">
-        <v>139.3512409194496</v>
+        <v>39.49952666874202</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.570898363297</v>
+        <v>45.57089836329703</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.64393163552143</v>
+        <v>25.64393163552147</v>
       </c>
       <c r="S16" t="n">
-        <v>57.635260268406</v>
+        <v>57.63526026840603</v>
       </c>
       <c r="T16" t="n">
-        <v>45.95077043248349</v>
+        <v>45.95077043248352</v>
       </c>
       <c r="U16" t="n">
         <v>110.8432023861718</v>
       </c>
       <c r="V16" t="n">
-        <v>67.29562741372129</v>
+        <v>67.29562741372132</v>
       </c>
       <c r="W16" t="n">
         <v>112.4973193186067</v>
       </c>
       <c r="X16" t="n">
-        <v>44.10606763751392</v>
+        <v>44.10606763751395</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.32788504343981</v>
+        <v>39.32788504343984</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.2986921063726</v>
       </c>
       <c r="H17" t="n">
-        <v>49.49445296407467</v>
+        <v>49.49445296407468</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>23.33894631172365</v>
       </c>
       <c r="W17" t="n">
-        <v>40.35562652833825</v>
+        <v>40.35562652833792</v>
       </c>
       <c r="X17" t="n">
         <v>62.24187699727776</v>
@@ -1932,16 +1932,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.85953969606284</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S18" t="n">
-        <v>33.46472473702513</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>188.2377854165522</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>188.2377854165522</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.13107715363697</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>94.24986523197016</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7425338994548</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>188.2377854165522</v>
       </c>
       <c r="V21" t="n">
-        <v>188.2377854165522</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.54373878807823</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>35.28205076999635</v>
       </c>
       <c r="X24" t="n">
-        <v>23.03773989507296</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.2377854165522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2561,7 +2561,7 @@
         <v>124.2156592170769</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9224116364857</v>
+        <v>157.9224116364858</v>
       </c>
       <c r="F26" t="n">
         <v>189.6427492148631</v>
@@ -2573,7 +2573,7 @@
         <v>133.4787898363527</v>
       </c>
       <c r="I26" t="n">
-        <v>27.50556298785523</v>
+        <v>27.50556298785526</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.99140403605909</v>
+        <v>13.99140403605912</v>
       </c>
       <c r="T26" t="n">
-        <v>8.915318795813675</v>
+        <v>8.915318795813704</v>
       </c>
       <c r="U26" t="n">
-        <v>36.59414958279154</v>
+        <v>36.59414958279157</v>
       </c>
       <c r="V26" t="n">
         <v>107.3232831840016</v>
@@ -2634,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J27" t="n">
-        <v>37.09967638027388</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S27" t="n">
-        <v>191.6042719936817</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.417348502443648</v>
+        <v>1.417348502443677</v>
       </c>
       <c r="U27" t="n">
-        <v>23.6716168191066</v>
+        <v>23.67161681910663</v>
       </c>
       <c r="V27" t="n">
-        <v>27.09242049025184</v>
+        <v>27.09242049025187</v>
       </c>
       <c r="W27" t="n">
-        <v>53.14808315186119</v>
+        <v>110.122412809944</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.756414014320228</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.827785708875211</v>
+        <v>9.82778570887524</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.89214761398421</v>
+        <v>21.89214761398424</v>
       </c>
       <c r="T28" t="n">
-        <v>10.2076577780617</v>
+        <v>10.20765777806173</v>
       </c>
       <c r="U28" t="n">
-        <v>75.10008973174996</v>
+        <v>75.10008973174999</v>
       </c>
       <c r="V28" t="n">
-        <v>31.5525147592995</v>
+        <v>31.55251475929953</v>
       </c>
       <c r="W28" t="n">
-        <v>76.75420666418492</v>
+        <v>76.75420666418495</v>
       </c>
       <c r="X28" t="n">
-        <v>8.362954983092123</v>
+        <v>8.362954983092152</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.584772389018013</v>
+        <v>3.584772389018042</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.4787898363527</v>
       </c>
       <c r="I29" t="n">
-        <v>27.50556298785528</v>
+        <v>27.50556298785529</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.99140403605914</v>
+        <v>13.99140403605915</v>
       </c>
       <c r="T29" t="n">
         <v>8.915318795813729</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.417348502443705</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U30" t="n">
-        <v>77.59188605765112</v>
+        <v>23.67161681910666</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.0924204902519</v>
       </c>
       <c r="W30" t="n">
-        <v>53.14808315186124</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>3.756414014320256</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>24.97523365768019</v>
       </c>
     </row>
     <row r="31">
@@ -3029,7 +3029,7 @@
         <v>160.4485653603267</v>
       </c>
       <c r="C32" t="n">
-        <v>136.5668223636722</v>
+        <v>136.5668223636721</v>
       </c>
       <c r="D32" t="n">
         <v>124.1334846247206</v>
@@ -3041,13 +3041,13 @@
         <v>189.5605746225068</v>
       </c>
       <c r="G32" t="n">
-        <v>205.2008543862944</v>
+        <v>205.2008543862943</v>
       </c>
       <c r="H32" t="n">
         <v>133.3966152439964</v>
       </c>
       <c r="I32" t="n">
-        <v>27.42338839549899</v>
+        <v>27.42338839549896</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.90922944370286</v>
+        <v>13.90922944370283</v>
       </c>
       <c r="T32" t="n">
-        <v>8.833144203457437</v>
+        <v>8.833144203457408</v>
       </c>
       <c r="U32" t="n">
-        <v>36.51197499043531</v>
+        <v>36.51197499043528</v>
       </c>
       <c r="V32" t="n">
-        <v>107.2411085916454</v>
+        <v>107.2411085916453</v>
       </c>
       <c r="W32" t="n">
         <v>124.2577888082602</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7425338994548</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S33" t="n">
-        <v>85.63308594372432</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33517391008741</v>
+        <v>1.335173910087382</v>
       </c>
       <c r="U33" t="n">
-        <v>23.58944222675036</v>
+        <v>179.7150196151856</v>
       </c>
       <c r="V33" t="n">
-        <v>27.0102458978956</v>
+        <v>27.01024589789557</v>
       </c>
       <c r="W33" t="n">
-        <v>53.06590855950495</v>
+        <v>53.06590855950492</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.745611116518972</v>
+        <v>9.745611116518944</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.80997302162797</v>
+        <v>21.80997302162794</v>
       </c>
       <c r="T34" t="n">
-        <v>10.12548318570547</v>
+        <v>10.12548318570544</v>
       </c>
       <c r="U34" t="n">
-        <v>75.01791513939372</v>
+        <v>75.01791513939369</v>
       </c>
       <c r="V34" t="n">
-        <v>31.47034016694326</v>
+        <v>31.47034016694323</v>
       </c>
       <c r="W34" t="n">
-        <v>76.67203207182868</v>
+        <v>76.67203207182865</v>
       </c>
       <c r="X34" t="n">
-        <v>8.280780390735885</v>
+        <v>8.280780390735856</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.502597796661775</v>
+        <v>3.502597796661746</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103.1588204764038</v>
+        <v>103.1588204764037</v>
       </c>
       <c r="C35" t="n">
-        <v>79.27707747974927</v>
+        <v>79.27707747974921</v>
       </c>
       <c r="D35" t="n">
-        <v>66.84373974079773</v>
+        <v>66.84373974079767</v>
       </c>
       <c r="E35" t="n">
-        <v>100.5504921602066</v>
+        <v>100.5504921602065</v>
       </c>
       <c r="F35" t="n">
         <v>132.2708297385839</v>
@@ -3281,7 +3281,7 @@
         <v>147.9111095023714</v>
       </c>
       <c r="H35" t="n">
-        <v>76.10687036007351</v>
+        <v>76.10687036007346</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>49.95136370772246</v>
+        <v>49.95136370772241</v>
       </c>
       <c r="W35" t="n">
-        <v>66.96804392433734</v>
+        <v>66.96804392433728</v>
       </c>
       <c r="X35" t="n">
-        <v>88.85429439327658</v>
+        <v>88.85429439327652</v>
       </c>
       <c r="Y35" t="n">
         <v>111.3571475170203</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>62.9774120802706</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>32.26661311215177</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.6042719936817</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>17.72817025547081</v>
+        <v>17.72817025547075</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>19.38228718790577</v>
+        <v>19.38228718790572</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>103.1588204764038</v>
+        <v>103.1588204764037</v>
       </c>
       <c r="C38" t="n">
-        <v>79.27707747974927</v>
+        <v>79.27707747974921</v>
       </c>
       <c r="D38" t="n">
-        <v>66.84373974079773</v>
+        <v>66.84373974079767</v>
       </c>
       <c r="E38" t="n">
-        <v>100.5504921602066</v>
+        <v>100.5504921602065</v>
       </c>
       <c r="F38" t="n">
         <v>132.2708297385839</v>
@@ -3518,7 +3518,7 @@
         <v>147.9111095023714</v>
       </c>
       <c r="H38" t="n">
-        <v>76.10687036007351</v>
+        <v>76.10687036007346</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>49.95136370772246</v>
+        <v>49.95136370772241</v>
       </c>
       <c r="W38" t="n">
-        <v>66.96804392433734</v>
+        <v>66.96804392433728</v>
       </c>
       <c r="X38" t="n">
-        <v>88.85429439327658</v>
+        <v>88.85429439327652</v>
       </c>
       <c r="Y38" t="n">
         <v>111.3571475170203</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>32.8204953244249</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7425338994548</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.973848927594</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.228117244257</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>263.6698075140545</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>74.20626189674037</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>17.72817025547081</v>
+        <v>17.72817025547075</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>19.38228718790577</v>
+        <v>19.38228718790572</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3819,19 +3819,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>9.842136675992267</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>35.94355773528892</v>
+        <v>25.64252016400596</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4059,22 +4059,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>133.6072180382019</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>25.64252016400596</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>162.9007349441568</v>
       </c>
     </row>
     <row r="46">
@@ -4325,7 +4325,7 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="J2" t="n">
         <v>0.384556269860207</v>
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="C3" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="D3" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="J3" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K3" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="L3" t="n">
-        <v>3.42319711481442</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M3" t="n">
-        <v>3.42319711481442</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N3" t="n">
-        <v>6.590454258427762</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="O3" t="n">
         <v>9.629741416440567</v>
@@ -4428,31 +4428,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R3" t="n">
-        <v>6.333867974168094</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S3" t="n">
-        <v>3.102302681225188</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T3" t="n">
-        <v>3.102302681225188</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U3" t="n">
-        <v>3.102302681225188</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="V3" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="W3" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="X3" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
     </row>
     <row r="4">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.71907055708713</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="C5" t="n">
-        <v>6.71907055708713</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="D5" t="n">
-        <v>6.71907055708713</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E5" t="n">
-        <v>6.71907055708713</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="F5" t="n">
-        <v>3.487505264144108</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M5" t="n">
-        <v>3.423197114814542</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X5" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.71907055708713</v>
+        <v>6.719070557086891</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.565433267111342</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C6" t="n">
-        <v>9.565433267111342</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D6" t="n">
-        <v>9.565433267111342</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E6" t="n">
-        <v>9.565433267111342</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F6" t="n">
-        <v>6.71907055708713</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G6" t="n">
-        <v>6.71907055708713</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H6" t="n">
-        <v>6.71907055708713</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I6" t="n">
-        <v>3.487505264144108</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K6" t="n">
-        <v>3.423197114814542</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L6" t="n">
-        <v>6.590454258427997</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M6" t="n">
-        <v>9.629741416440908</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="N6" t="n">
-        <v>9.629741416440908</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="O6" t="n">
-        <v>12.79699856005436</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P6" t="n">
-        <v>12.79699856005436</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.79699856005436</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="R6" t="n">
-        <v>12.79699856005436</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="S6" t="n">
-        <v>9.565433267111342</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="T6" t="n">
-        <v>9.565433267111342</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="U6" t="n">
-        <v>9.565433267111342</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="V6" t="n">
-        <v>9.565433267111342</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="W6" t="n">
-        <v>9.565433267111342</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="X6" t="n">
-        <v>9.565433267111342</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.565433267111342</v>
+        <v>0.2559399712010781</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2559399712010872</v>
+        <v>0.2559399712010781</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="C8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="D8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="E8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="F8" t="n">
-        <v>3.833742919262513</v>
+        <v>10.65646961564463</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="M8" t="n">
-        <v>3.763050291303539</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="N8" t="n">
-        <v>7.244751028117094</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="O8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="R8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="S8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="T8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="U8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="V8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="W8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="X8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.065308212205419</v>
+        <v>13.88803490858754</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="C9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="D9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="E9" t="n">
-        <v>10.51508435972668</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="F9" t="n">
-        <v>10.51508435972668</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="G9" t="n">
-        <v>10.51508435972668</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="H9" t="n">
         <v>7.386136284035041</v>
@@ -4890,13 +4890,13 @@
         <v>6.937899146382215</v>
       </c>
       <c r="M9" t="n">
-        <v>7.104076250872104</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="N9" t="n">
-        <v>7.104076250872104</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O9" t="n">
-        <v>10.58577698768566</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4905,28 +4905,28 @@
         <v>14.06747772449921</v>
       </c>
       <c r="R9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="S9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="T9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="U9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="V9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="W9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="X9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395.3373772101974</v>
+        <v>440.016965812722</v>
       </c>
       <c r="C11" t="n">
-        <v>395.3373772101974</v>
+        <v>440.016965812722</v>
       </c>
       <c r="D11" t="n">
-        <v>395.3373772101974</v>
+        <v>440.016965812722</v>
       </c>
       <c r="E11" t="n">
-        <v>395.3373772101974</v>
+        <v>249.8777886242854</v>
       </c>
       <c r="F11" t="n">
-        <v>205.1982000217608</v>
+        <v>249.8777886242854</v>
       </c>
       <c r="G11" t="n">
-        <v>15.05902283332418</v>
+        <v>249.8777886242854</v>
       </c>
       <c r="H11" t="n">
-        <v>15.05902283332418</v>
+        <v>78.94657398713939</v>
       </c>
       <c r="I11" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="J11" t="n">
-        <v>26.18319865231786</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="K11" t="n">
-        <v>26.18319865231786</v>
+        <v>184.2635375442748</v>
       </c>
       <c r="L11" t="n">
-        <v>212.5386062147045</v>
+        <v>230.7724640037423</v>
       </c>
       <c r="M11" t="n">
-        <v>293.1647078961179</v>
+        <v>417.127871566129</v>
       </c>
       <c r="N11" t="n">
-        <v>479.5201154585046</v>
+        <v>558.0556726855193</v>
       </c>
       <c r="O11" t="n">
-        <v>665.8755230208913</v>
+        <v>592.0500477547055</v>
       </c>
       <c r="P11" t="n">
-        <v>665.8755230208913</v>
+        <v>752.9511416662087</v>
       </c>
       <c r="Q11" t="n">
-        <v>752.9511416662089</v>
+        <v>752.9511416662087</v>
       </c>
       <c r="R11" t="n">
-        <v>752.9511416662089</v>
+        <v>735.6245112034002</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9511416662089</v>
+        <v>685.3876256574598</v>
       </c>
       <c r="T11" t="n">
-        <v>707.8416149487992</v>
+        <v>640.2780989400501</v>
       </c>
       <c r="U11" t="n">
-        <v>634.7736732950484</v>
+        <v>640.2780989400501</v>
       </c>
       <c r="V11" t="n">
-        <v>634.7736732950484</v>
+        <v>640.2780989400501</v>
       </c>
       <c r="W11" t="n">
-        <v>585.476554398634</v>
+        <v>478.5780221167791</v>
       </c>
       <c r="X11" t="n">
-        <v>585.476554398634</v>
+        <v>440.016965812722</v>
       </c>
       <c r="Y11" t="n">
-        <v>395.3373772101974</v>
+        <v>440.016965812722</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>266.1550907484764</v>
+        <v>402.2812135486908</v>
       </c>
       <c r="C12" t="n">
-        <v>256.3522990781357</v>
+        <v>392.47842187835</v>
       </c>
       <c r="D12" t="n">
-        <v>188.6222267119097</v>
+        <v>392.47842187835</v>
       </c>
       <c r="E12" t="n">
-        <v>15.05902283332418</v>
+        <v>392.47842187835</v>
       </c>
       <c r="F12" t="n">
-        <v>15.05902283332418</v>
+        <v>392.47842187835</v>
       </c>
       <c r="G12" t="n">
-        <v>15.05902283332418</v>
+        <v>242.2306135605455</v>
       </c>
       <c r="H12" t="n">
-        <v>15.05902283332418</v>
+        <v>123.5321522610498</v>
       </c>
       <c r="I12" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="J12" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="K12" t="n">
-        <v>52.90632646829518</v>
+        <v>52.90632646829516</v>
       </c>
       <c r="L12" t="n">
         <v>170.0832391874855</v>
@@ -5130,40 +5130,40 @@
         <v>351.5778336703204</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9332412327071</v>
+        <v>537.933241232707</v>
       </c>
       <c r="O12" t="n">
-        <v>669.4632308531759</v>
+        <v>669.4632308531758</v>
       </c>
       <c r="P12" t="n">
-        <v>752.9511416662087</v>
+        <v>752.9511416662086</v>
       </c>
       <c r="Q12" t="n">
-        <v>752.9511416662089</v>
+        <v>752.9511416662086</v>
       </c>
       <c r="R12" t="n">
-        <v>616.8250188659941</v>
+        <v>752.9511416662086</v>
       </c>
       <c r="S12" t="n">
-        <v>602.8948327822031</v>
+        <v>739.0209555824176</v>
       </c>
       <c r="T12" t="n">
-        <v>565.359013431834</v>
+        <v>701.4851362320485</v>
       </c>
       <c r="U12" t="n">
-        <v>505.3441351757447</v>
+        <v>641.4702579759592</v>
       </c>
       <c r="V12" t="n">
-        <v>441.8738996760744</v>
+        <v>578.0000224762888</v>
       </c>
       <c r="W12" t="n">
-        <v>352.0848130030613</v>
+        <v>488.2109358032757</v>
       </c>
       <c r="X12" t="n">
-        <v>312.1863012164532</v>
+        <v>448.3124240166676</v>
       </c>
       <c r="Y12" t="n">
-        <v>266.1550907484764</v>
+        <v>402.2812135486908</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.25352526802709</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="C13" t="n">
-        <v>26.49616999879579</v>
+        <v>26.30166756409285</v>
       </c>
       <c r="D13" t="n">
-        <v>58.80060014361352</v>
+        <v>26.30166756409285</v>
       </c>
       <c r="E13" t="n">
-        <v>94.57647423653211</v>
+        <v>62.0775416570114</v>
       </c>
       <c r="F13" t="n">
-        <v>133.0741147332913</v>
+        <v>62.0775416570114</v>
       </c>
       <c r="G13" t="n">
-        <v>133.0741147332913</v>
+        <v>62.0775416570114</v>
       </c>
       <c r="H13" t="n">
-        <v>144.9378593466133</v>
+        <v>73.94128627033345</v>
       </c>
       <c r="I13" t="n">
-        <v>157.7505599954736</v>
+        <v>73.94128627033345</v>
       </c>
       <c r="J13" t="n">
-        <v>157.7505599954736</v>
+        <v>130.8967412191763</v>
       </c>
       <c r="K13" t="n">
-        <v>233.6207761005389</v>
+        <v>130.8967412191763</v>
       </c>
       <c r="L13" t="n">
-        <v>233.6207761005389</v>
+        <v>130.8967412191763</v>
       </c>
       <c r="M13" t="n">
-        <v>384.5969092833875</v>
+        <v>130.8967412191763</v>
       </c>
       <c r="N13" t="n">
-        <v>384.5969092833875</v>
+        <v>290.4848605421869</v>
       </c>
       <c r="O13" t="n">
-        <v>523.442926000864</v>
+        <v>429.3308772596634</v>
       </c>
       <c r="P13" t="n">
-        <v>523.442926000864</v>
+        <v>473.4029283408802</v>
       </c>
       <c r="Q13" t="n">
-        <v>523.442926000864</v>
+        <v>523.4429260008643</v>
       </c>
       <c r="R13" t="n">
-        <v>497.5399647528625</v>
+        <v>497.5399647528628</v>
       </c>
       <c r="S13" t="n">
-        <v>439.322530138311</v>
+        <v>439.3225301383113</v>
       </c>
       <c r="T13" t="n">
-        <v>392.9076105095398</v>
+        <v>392.90761050954</v>
       </c>
       <c r="U13" t="n">
-        <v>280.9447798164371</v>
+        <v>280.9447798164372</v>
       </c>
       <c r="V13" t="n">
-        <v>212.9693985904559</v>
+        <v>212.969398590456</v>
       </c>
       <c r="W13" t="n">
-        <v>99.33574271307542</v>
+        <v>99.33574271307546</v>
       </c>
       <c r="X13" t="n">
-        <v>54.78415924083914</v>
+        <v>54.78415924083916</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>350.7669839262019</v>
+        <v>550.2628587098666</v>
       </c>
       <c r="C14" t="n">
-        <v>176.633539875242</v>
+        <v>376.1294146589067</v>
       </c>
       <c r="D14" t="n">
-        <v>15.05902283332418</v>
+        <v>376.1294146589067</v>
       </c>
       <c r="E14" t="n">
-        <v>15.05902283332418</v>
+        <v>376.1294146589067</v>
       </c>
       <c r="F14" t="n">
-        <v>15.05902283332418</v>
+        <v>376.1294146589067</v>
       </c>
       <c r="G14" t="n">
-        <v>15.05902283332418</v>
+        <v>185.9902374704701</v>
       </c>
       <c r="H14" t="n">
         <v>15.05902283332418</v>
@@ -5282,19 +5282,19 @@
         <v>15.05902283332418</v>
       </c>
       <c r="L14" t="n">
-        <v>61.56794929279167</v>
+        <v>144.2509523483139</v>
       </c>
       <c r="M14" t="n">
-        <v>142.194050974205</v>
+        <v>330.6063599107006</v>
       </c>
       <c r="N14" t="n">
-        <v>328.5494585365917</v>
+        <v>405.6946401923189</v>
       </c>
       <c r="O14" t="n">
-        <v>514.9048660989783</v>
+        <v>592.0500477547056</v>
       </c>
       <c r="P14" t="n">
-        <v>665.8755230208913</v>
+        <v>752.9511416662089</v>
       </c>
       <c r="Q14" t="n">
         <v>752.9511416662089</v>
@@ -5306,22 +5306,22 @@
         <v>752.9511416662089</v>
       </c>
       <c r="T14" t="n">
-        <v>707.8416149487992</v>
+        <v>707.8416149487991</v>
       </c>
       <c r="U14" t="n">
-        <v>707.8416149487992</v>
+        <v>634.7736732950483</v>
       </c>
       <c r="V14" t="n">
-        <v>563.3301040008968</v>
+        <v>634.7736732950483</v>
       </c>
       <c r="W14" t="n">
-        <v>534.5743844554721</v>
+        <v>634.7736732950483</v>
       </c>
       <c r="X14" t="n">
-        <v>350.7669839262019</v>
+        <v>634.7736732950483</v>
       </c>
       <c r="Y14" t="n">
-        <v>350.7669839262019</v>
+        <v>550.2628587098666</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.8618145036649</v>
+        <v>226.0722224440454</v>
       </c>
       <c r="C15" t="n">
-        <v>15.05902283332418</v>
+        <v>216.2694307737046</v>
       </c>
       <c r="D15" t="n">
-        <v>15.05902283332418</v>
+        <v>216.2694307737046</v>
       </c>
       <c r="E15" t="n">
-        <v>15.05902283332418</v>
+        <v>42.7062268951191</v>
       </c>
       <c r="F15" t="n">
-        <v>15.05902283332418</v>
+        <v>42.7062268951191</v>
       </c>
       <c r="G15" t="n">
-        <v>15.05902283332418</v>
+        <v>42.7062268951191</v>
       </c>
       <c r="H15" t="n">
-        <v>15.05902283332418</v>
+        <v>42.7062268951191</v>
       </c>
       <c r="I15" t="n">
         <v>15.05902283332418</v>
@@ -5358,16 +5358,16 @@
         <v>15.05902283332418</v>
       </c>
       <c r="K15" t="n">
-        <v>52.90632646829511</v>
+        <v>52.90632646829522</v>
       </c>
       <c r="L15" t="n">
         <v>170.0832391874856</v>
       </c>
       <c r="M15" t="n">
-        <v>351.5778336703204</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9332412327071</v>
+        <v>537.9332412327072</v>
       </c>
       <c r="O15" t="n">
         <v>669.463230853176</v>
@@ -5391,16 +5391,16 @@
         <v>465.2612668713138</v>
       </c>
       <c r="V15" t="n">
-        <v>401.7910313716435</v>
+        <v>401.7910313716434</v>
       </c>
       <c r="W15" t="n">
-        <v>211.6518541832069</v>
+        <v>312.0019446986303</v>
       </c>
       <c r="X15" t="n">
-        <v>70.89302497164167</v>
+        <v>272.1034329120222</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.8618145036649</v>
+        <v>226.0722224440454</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.25352526802709</v>
+        <v>15.25352526802706</v>
       </c>
       <c r="C16" t="n">
-        <v>15.25352526802709</v>
+        <v>26.49616999879574</v>
       </c>
       <c r="D16" t="n">
-        <v>47.55795541284481</v>
+        <v>58.80060014361343</v>
       </c>
       <c r="E16" t="n">
-        <v>83.33382950576339</v>
+        <v>94.57647423653199</v>
       </c>
       <c r="F16" t="n">
-        <v>121.8314700025225</v>
+        <v>133.0741147332911</v>
       </c>
       <c r="G16" t="n">
-        <v>130.8523543493871</v>
+        <v>142.0949990801557</v>
       </c>
       <c r="H16" t="n">
-        <v>142.7160989627092</v>
+        <v>153.9587436934777</v>
       </c>
       <c r="I16" t="n">
-        <v>155.5287996115694</v>
+        <v>153.9587436934777</v>
       </c>
       <c r="J16" t="n">
-        <v>155.5287996115694</v>
+        <v>153.9587436934777</v>
       </c>
       <c r="K16" t="n">
-        <v>265.134388925296</v>
+        <v>263.5643330072042</v>
       </c>
       <c r="L16" t="n">
-        <v>265.134388925296</v>
+        <v>263.5643330072042</v>
       </c>
       <c r="M16" t="n">
-        <v>416.1105221081446</v>
+        <v>263.5643330072042</v>
       </c>
       <c r="N16" t="n">
-        <v>416.1105221081446</v>
+        <v>384.5969092833878</v>
       </c>
       <c r="O16" t="n">
-        <v>523.442926000864</v>
+        <v>523.4429260008643</v>
       </c>
       <c r="P16" t="n">
-        <v>523.442926000864</v>
+        <v>523.4429260008643</v>
       </c>
       <c r="Q16" t="n">
-        <v>523.442926000864</v>
+        <v>523.4429260008643</v>
       </c>
       <c r="R16" t="n">
-        <v>497.5399647528625</v>
+        <v>497.5399647528628</v>
       </c>
       <c r="S16" t="n">
-        <v>439.322530138311</v>
+        <v>439.3225301383113</v>
       </c>
       <c r="T16" t="n">
-        <v>392.9076105095398</v>
+        <v>392.90761050954</v>
       </c>
       <c r="U16" t="n">
-        <v>280.9447798164371</v>
+        <v>280.9447798164372</v>
       </c>
       <c r="V16" t="n">
-        <v>212.9693985904559</v>
+        <v>212.969398590456</v>
       </c>
       <c r="W16" t="n">
-        <v>99.33574271307542</v>
+        <v>99.33574271307548</v>
       </c>
       <c r="X16" t="n">
-        <v>54.78415924083914</v>
+        <v>54.78415924083917</v>
       </c>
       <c r="Y16" t="n">
         <v>15.05902283332418</v>
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.8222699098791</v>
+        <v>462.8222699098798</v>
       </c>
       <c r="C17" t="n">
-        <v>409.6256435626565</v>
+        <v>409.6256435626573</v>
       </c>
       <c r="D17" t="n">
-        <v>368.987944224476</v>
+        <v>368.9879442244766</v>
       </c>
       <c r="E17" t="n">
-        <v>294.303020220226</v>
+        <v>294.3030202202263</v>
       </c>
       <c r="F17" t="n">
-        <v>187.5773511873117</v>
+        <v>187.5773511873119</v>
       </c>
       <c r="G17" t="n">
-        <v>65.05341976673293</v>
+        <v>65.05341976673294</v>
       </c>
       <c r="H17" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="I17" t="n">
-        <v>70.97300897890268</v>
+        <v>70.97300897890267</v>
       </c>
       <c r="J17" t="n">
-        <v>229.5996584832213</v>
+        <v>257.3284165412894</v>
       </c>
       <c r="K17" t="n">
-        <v>229.5996584832213</v>
+        <v>415.1851136596894</v>
       </c>
       <c r="L17" t="n">
-        <v>276.1085849426888</v>
+        <v>461.6940401191569</v>
       </c>
       <c r="M17" t="n">
-        <v>356.7346866241022</v>
+        <v>542.3201418005702</v>
       </c>
       <c r="N17" t="n">
-        <v>543.0900941864888</v>
+        <v>617.4084220821885</v>
       </c>
       <c r="O17" t="n">
-        <v>577.084469255675</v>
+        <v>651.4027971513747</v>
       </c>
       <c r="P17" t="n">
-        <v>577.084469255675</v>
+        <v>651.4027971513747</v>
       </c>
       <c r="Q17" t="n">
-        <v>577.084469255675</v>
+        <v>651.4027971513747</v>
       </c>
       <c r="R17" t="n">
-        <v>678.6328137705092</v>
+        <v>752.9511416662089</v>
       </c>
       <c r="S17" t="n">
-        <v>678.6328137705092</v>
+        <v>752.9511416662089</v>
       </c>
       <c r="T17" t="n">
         <v>752.9511416662089</v>
@@ -5552,13 +5552,13 @@
         <v>729.3764484220435</v>
       </c>
       <c r="W17" t="n">
-        <v>688.6131893025099</v>
+        <v>688.6131893025102</v>
       </c>
       <c r="X17" t="n">
-        <v>625.7426064769768</v>
+        <v>625.7426064769772</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.1418689809952</v>
+        <v>540.1418689809959</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>338.8700350297142</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="C18" t="n">
-        <v>338.8700350297142</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="D18" t="n">
-        <v>338.8700350297142</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="E18" t="n">
-        <v>165.3068311511287</v>
+        <v>253.1226377989719</v>
       </c>
       <c r="F18" t="n">
-        <v>165.3068311511287</v>
+        <v>92.69492151621594</v>
       </c>
       <c r="G18" t="n">
-        <v>15.05902283332418</v>
+        <v>92.69492151621594</v>
       </c>
       <c r="H18" t="n">
-        <v>15.05902283332418</v>
+        <v>92.69492151621594</v>
       </c>
       <c r="I18" t="n">
         <v>15.05902283332418</v>
@@ -5595,13 +5595,13 @@
         <v>15.05902283332418</v>
       </c>
       <c r="K18" t="n">
-        <v>52.90632646829518</v>
+        <v>52.90632646829517</v>
       </c>
       <c r="L18" t="n">
         <v>170.0832391874855</v>
       </c>
       <c r="M18" t="n">
-        <v>351.5778336703204</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N18" t="n">
         <v>537.9332412327072</v>
@@ -5616,28 +5616,28 @@
         <v>752.9511416662089</v>
       </c>
       <c r="R18" t="n">
-        <v>752.9511416662089</v>
+        <v>616.825018865994</v>
       </c>
       <c r="S18" t="n">
-        <v>719.1483894065875</v>
+        <v>616.825018865994</v>
       </c>
       <c r="T18" t="n">
-        <v>529.0092122181509</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="U18" t="n">
-        <v>529.0092122181509</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="V18" t="n">
-        <v>338.8700350297142</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="W18" t="n">
-        <v>338.8700350297142</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="X18" t="n">
-        <v>338.8700350297142</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="Y18" t="n">
-        <v>338.8700350297142</v>
+        <v>426.6858416775574</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>462.8222699098793</v>
+        <v>462.8222699098791</v>
       </c>
       <c r="C20" t="n">
-        <v>409.6256435626565</v>
+        <v>409.6256435626566</v>
       </c>
       <c r="D20" t="n">
         <v>368.9879442244758</v>
       </c>
       <c r="E20" t="n">
-        <v>294.3030202202255</v>
+        <v>294.3030202202256</v>
       </c>
       <c r="F20" t="n">
-        <v>187.5773511873113</v>
+        <v>187.5773511873111</v>
       </c>
       <c r="G20" t="n">
         <v>65.05341976673296</v>
@@ -5747,16 +5747,16 @@
         <v>15.05902283332418</v>
       </c>
       <c r="I20" t="n">
-        <v>70.97300897890268</v>
+        <v>70.97300897890267</v>
       </c>
       <c r="J20" t="n">
-        <v>70.97300897890268</v>
+        <v>70.97300897890267</v>
       </c>
       <c r="K20" t="n">
-        <v>70.97300897890268</v>
+        <v>70.97300897890267</v>
       </c>
       <c r="L20" t="n">
-        <v>117.4819354383702</v>
+        <v>117.4819354383701</v>
       </c>
       <c r="M20" t="n">
         <v>198.1080371197835</v>
@@ -5765,37 +5765,37 @@
         <v>273.1963174014018</v>
       </c>
       <c r="O20" t="n">
-        <v>307.1906924705879</v>
+        <v>459.5517249637884</v>
       </c>
       <c r="P20" t="n">
-        <v>493.5461000329746</v>
+        <v>459.5517249637884</v>
       </c>
       <c r="Q20" t="n">
-        <v>493.5461000329746</v>
+        <v>645.9071325261751</v>
       </c>
       <c r="R20" t="n">
-        <v>595.0944445478087</v>
+        <v>645.9071325261751</v>
       </c>
       <c r="S20" t="n">
-        <v>664.3874480556655</v>
+        <v>715.2001360340319</v>
       </c>
       <c r="T20" t="n">
-        <v>706.0348562496173</v>
+        <v>752.9511416662089</v>
       </c>
       <c r="U20" t="n">
         <v>752.9511416662089</v>
       </c>
       <c r="V20" t="n">
-        <v>729.3764484220435</v>
+        <v>729.3764484220436</v>
       </c>
       <c r="W20" t="n">
-        <v>688.6131893025097</v>
+        <v>688.6131893025099</v>
       </c>
       <c r="X20" t="n">
         <v>625.7426064769768</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.1418689809955</v>
+        <v>540.1418689809954</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>312.944426528086</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="C21" t="n">
-        <v>123.5321522610497</v>
+        <v>237.2735674105211</v>
       </c>
       <c r="D21" t="n">
-        <v>123.5321522610497</v>
+        <v>142.071683337824</v>
       </c>
       <c r="E21" t="n">
-        <v>123.5321522610497</v>
+        <v>142.071683337824</v>
       </c>
       <c r="F21" t="n">
-        <v>123.5321522610497</v>
+        <v>142.071683337824</v>
       </c>
       <c r="G21" t="n">
-        <v>123.5321522610497</v>
+        <v>142.071683337824</v>
       </c>
       <c r="H21" t="n">
-        <v>123.5321522610497</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I21" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332434</v>
       </c>
       <c r="J21" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332434</v>
       </c>
       <c r="K21" t="n">
-        <v>52.90632646829518</v>
+        <v>52.90632646829533</v>
       </c>
       <c r="L21" t="n">
-        <v>170.0832391874855</v>
+        <v>170.0832391874857</v>
       </c>
       <c r="M21" t="n">
-        <v>351.5778336703204</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N21" t="n">
-        <v>537.9332412327071</v>
+        <v>537.9332412327072</v>
       </c>
       <c r="O21" t="n">
-        <v>669.4632308531759</v>
+        <v>669.463230853176</v>
       </c>
       <c r="P21" t="n">
-        <v>752.9511416662087</v>
+        <v>752.9511416662089</v>
       </c>
       <c r="Q21" t="n">
-        <v>752.9511416662087</v>
+        <v>752.9511416662089</v>
       </c>
       <c r="R21" t="n">
-        <v>752.9511416662087</v>
+        <v>616.825018865994</v>
       </c>
       <c r="S21" t="n">
-        <v>752.9511416662087</v>
+        <v>616.825018865994</v>
       </c>
       <c r="T21" t="n">
-        <v>752.9511416662087</v>
+        <v>616.825018865994</v>
       </c>
       <c r="U21" t="n">
-        <v>562.8119644777721</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="V21" t="n">
-        <v>372.6727872893355</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="W21" t="n">
-        <v>372.6727872893355</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="X21" t="n">
-        <v>372.6727872893355</v>
+        <v>426.6858416775574</v>
       </c>
       <c r="Y21" t="n">
-        <v>372.6727872893355</v>
+        <v>426.6858416775574</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>462.822269909879</v>
+        <v>462.8222699098792</v>
       </c>
       <c r="C23" t="n">
-        <v>409.6256435626561</v>
+        <v>409.6256435626566</v>
       </c>
       <c r="D23" t="n">
-        <v>368.9879442244754</v>
+        <v>368.9879442244759</v>
       </c>
       <c r="E23" t="n">
-        <v>294.3030202202252</v>
+        <v>294.3030202202256</v>
       </c>
       <c r="F23" t="n">
-        <v>187.5773511873107</v>
+        <v>187.5773511873113</v>
       </c>
       <c r="G23" t="n">
         <v>65.05341976673296</v>
       </c>
       <c r="H23" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="I23" t="n">
-        <v>70.97300897890268</v>
+        <v>70.97300897890267</v>
       </c>
       <c r="J23" t="n">
-        <v>70.97300897890268</v>
+        <v>169.6093266757968</v>
       </c>
       <c r="K23" t="n">
-        <v>70.97300897890268</v>
+        <v>169.6093266757968</v>
       </c>
       <c r="L23" t="n">
-        <v>117.4819354383702</v>
+        <v>355.9647342381835</v>
       </c>
       <c r="M23" t="n">
-        <v>198.1080371197835</v>
+        <v>542.3201418005701</v>
       </c>
       <c r="N23" t="n">
-        <v>273.1963174014018</v>
+        <v>617.4084220821884</v>
       </c>
       <c r="O23" t="n">
-        <v>307.1906924705879</v>
+        <v>651.4027971513746</v>
       </c>
       <c r="P23" t="n">
-        <v>493.5461000329746</v>
+        <v>651.4027971513746</v>
       </c>
       <c r="Q23" t="n">
-        <v>493.5461000329746</v>
+        <v>651.4027971513746</v>
       </c>
       <c r="R23" t="n">
-        <v>562.4235248460609</v>
+        <v>752.9511416662087</v>
       </c>
       <c r="S23" t="n">
-        <v>631.7165283539176</v>
+        <v>752.9511416662087</v>
       </c>
       <c r="T23" t="n">
-        <v>706.0348562496173</v>
+        <v>752.9511416662087</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9511416662089</v>
+        <v>752.9511416662087</v>
       </c>
       <c r="V23" t="n">
-        <v>729.3764484220432</v>
+        <v>729.3764484220435</v>
       </c>
       <c r="W23" t="n">
-        <v>688.6131893025093</v>
+        <v>688.6131893025097</v>
       </c>
       <c r="X23" t="n">
-        <v>625.7426064769764</v>
+        <v>625.7426064769766</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.141868980995</v>
+        <v>540.1418689809952</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>349.4023429508779</v>
+        <v>337.0343521681271</v>
       </c>
       <c r="C24" t="n">
-        <v>349.4023429508779</v>
+        <v>337.0343521681271</v>
       </c>
       <c r="D24" t="n">
-        <v>188.6222267119097</v>
+        <v>337.0343521681271</v>
       </c>
       <c r="E24" t="n">
-        <v>15.05902283332418</v>
+        <v>337.0343521681271</v>
       </c>
       <c r="F24" t="n">
-        <v>15.05902283332418</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="G24" t="n">
-        <v>15.05902283332418</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="H24" t="n">
-        <v>15.05902283332418</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="I24" t="n">
-        <v>15.05902283332418</v>
+        <v>68.13350645764562</v>
       </c>
       <c r="J24" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="K24" t="n">
-        <v>52.90632646829518</v>
+        <v>52.90632646829516</v>
       </c>
       <c r="L24" t="n">
         <v>170.0832391874855</v>
@@ -6078,19 +6078,19 @@
         <v>351.5778336703204</v>
       </c>
       <c r="N24" t="n">
-        <v>537.9332412327071</v>
+        <v>537.933241232707</v>
       </c>
       <c r="O24" t="n">
-        <v>669.4632308531759</v>
+        <v>669.4632308531758</v>
       </c>
       <c r="P24" t="n">
-        <v>752.9511416662087</v>
+        <v>752.9511416662086</v>
       </c>
       <c r="Q24" t="n">
-        <v>752.9511416662087</v>
+        <v>752.9511416662086</v>
       </c>
       <c r="R24" t="n">
-        <v>752.9511416662087</v>
+        <v>752.9511416662086</v>
       </c>
       <c r="S24" t="n">
         <v>562.8119644777721</v>
@@ -6099,19 +6099,19 @@
         <v>562.8119644777721</v>
       </c>
       <c r="U24" t="n">
-        <v>562.8119644777721</v>
+        <v>372.6727872893355</v>
       </c>
       <c r="V24" t="n">
-        <v>562.8119644777721</v>
+        <v>372.6727872893355</v>
       </c>
       <c r="W24" t="n">
-        <v>562.8119644777721</v>
+        <v>337.0343521681271</v>
       </c>
       <c r="X24" t="n">
-        <v>539.5415201393146</v>
+        <v>337.0343521681271</v>
       </c>
       <c r="Y24" t="n">
-        <v>349.4023429508779</v>
+        <v>337.0343521681271</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="C25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="D25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="E25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="F25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="G25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="H25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="I25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="J25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="K25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="L25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="M25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="N25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="O25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="P25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="R25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="S25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="T25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="U25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="V25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="W25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="X25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.05902283332418</v>
+        <v>15.05902283332417</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.439292541342</v>
+        <v>1020.439292541341</v>
       </c>
       <c r="C26" t="n">
-        <v>882.4100026867678</v>
+        <v>882.4100026867668</v>
       </c>
       <c r="D26" t="n">
-        <v>756.9396398412355</v>
+        <v>756.9396398412346</v>
       </c>
       <c r="E26" t="n">
-        <v>597.4220523296337</v>
+        <v>597.4220523296328</v>
       </c>
       <c r="F26" t="n">
-        <v>405.863719789368</v>
+        <v>405.863719789367</v>
       </c>
       <c r="G26" t="n">
-        <v>198.5071248614381</v>
+        <v>198.5071248614373</v>
       </c>
       <c r="H26" t="n">
-        <v>63.68006442067698</v>
+        <v>63.68006442067701</v>
       </c>
       <c r="I26" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="J26" t="n">
-        <v>171.1898251244085</v>
+        <v>171.1898251244088</v>
       </c>
       <c r="K26" t="n">
-        <v>375.7800213632368</v>
+        <v>375.780021363237</v>
       </c>
       <c r="L26" t="n">
-        <v>633.7098832436031</v>
+        <v>633.7098832436034</v>
       </c>
       <c r="M26" t="n">
         <v>925.7569203459154</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.266136048433</v>
+        <v>1212.266136048432</v>
       </c>
       <c r="O26" t="n">
-        <v>1457.681446538518</v>
+        <v>1457.681446538517</v>
       </c>
       <c r="P26" t="n">
-        <v>1653.968221977899</v>
+        <v>1653.968221977898</v>
       </c>
       <c r="Q26" t="n">
         <v>1776.429522151094</v>
       </c>
       <c r="R26" t="n">
-        <v>1794.833373162373</v>
+        <v>1794.833373162372</v>
       </c>
       <c r="S26" t="n">
         <v>1780.700641812818</v>
@@ -6257,19 +6257,19 @@
         <v>1771.695269291794</v>
       </c>
       <c r="U26" t="n">
-        <v>1734.731481834429</v>
+        <v>1734.731481834428</v>
       </c>
       <c r="V26" t="n">
-        <v>1626.324125082912</v>
+        <v>1626.324125082911</v>
       </c>
       <c r="W26" t="n">
-        <v>1500.728202456027</v>
+        <v>1500.728202456026</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.024956123142</v>
+        <v>1353.024956123141</v>
       </c>
       <c r="Y26" t="n">
-        <v>1182.59155511981</v>
+        <v>1182.591555119809</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1265.465250833392</v>
+        <v>478.3607170523145</v>
       </c>
       <c r="C27" t="n">
-        <v>1076.052976566356</v>
+        <v>478.3607170523145</v>
       </c>
       <c r="D27" t="n">
-        <v>1076.052976566356</v>
+        <v>478.3607170523145</v>
       </c>
       <c r="E27" t="n">
-        <v>1076.052976566356</v>
+        <v>304.7975131737289</v>
       </c>
       <c r="F27" t="n">
-        <v>1076.052976566356</v>
+        <v>144.369796890973</v>
       </c>
       <c r="G27" t="n">
-        <v>1076.052976566356</v>
+        <v>144.369796890973</v>
       </c>
       <c r="H27" t="n">
-        <v>1076.052976566356</v>
+        <v>144.369796890973</v>
       </c>
       <c r="I27" t="n">
-        <v>1076.052976566356</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="J27" t="n">
-        <v>1038.578555980221</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="K27" t="n">
-        <v>1076.425859615192</v>
+        <v>73.74397109821845</v>
       </c>
       <c r="L27" t="n">
-        <v>1193.602772334382</v>
+        <v>190.9208838174088</v>
       </c>
       <c r="M27" t="n">
-        <v>1375.097366817217</v>
+        <v>372.4154783002436</v>
       </c>
       <c r="N27" t="n">
-        <v>1579.815472728871</v>
+        <v>577.133584211898</v>
       </c>
       <c r="O27" t="n">
-        <v>1711.34546234934</v>
+        <v>708.6635738323668</v>
       </c>
       <c r="P27" t="n">
-        <v>1794.833373162373</v>
+        <v>792.1514846453996</v>
       </c>
       <c r="Q27" t="n">
-        <v>1794.833373162373</v>
+        <v>792.1514846453996</v>
       </c>
       <c r="R27" t="n">
-        <v>1794.833373162373</v>
+        <v>656.0253618451848</v>
       </c>
       <c r="S27" t="n">
-        <v>1601.293704481886</v>
+        <v>656.0253618451848</v>
       </c>
       <c r="T27" t="n">
-        <v>1599.862039327903</v>
+        <v>654.5936966912012</v>
       </c>
       <c r="U27" t="n">
-        <v>1575.951315268199</v>
+        <v>630.6829726314976</v>
       </c>
       <c r="V27" t="n">
-        <v>1548.585233964915</v>
+        <v>603.3168913282129</v>
       </c>
       <c r="W27" t="n">
-        <v>1494.900301488287</v>
+        <v>492.0821309141281</v>
       </c>
       <c r="X27" t="n">
-        <v>1275.392307104984</v>
+        <v>488.2877733239056</v>
       </c>
       <c r="Y27" t="n">
-        <v>1265.465250833392</v>
+        <v>478.3607170523145</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="C28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="D28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="E28" t="n">
-        <v>59.09010265438819</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="F28" t="n">
-        <v>132.9734246790249</v>
+        <v>109.7799894878841</v>
       </c>
       <c r="G28" t="n">
-        <v>132.9734246790249</v>
+        <v>109.7799894878841</v>
       </c>
       <c r="H28" t="n">
-        <v>180.2228508202246</v>
+        <v>109.7799894878841</v>
       </c>
       <c r="I28" t="n">
-        <v>180.2228508202246</v>
+        <v>109.7799894878841</v>
       </c>
       <c r="J28" t="n">
-        <v>180.2228508202246</v>
+        <v>109.7799894878841</v>
       </c>
       <c r="K28" t="n">
-        <v>180.2228508202246</v>
+        <v>109.7799894878841</v>
       </c>
       <c r="L28" t="n">
-        <v>180.2228508202246</v>
+        <v>109.7799894878841</v>
       </c>
       <c r="M28" t="n">
-        <v>180.2228508202246</v>
+        <v>109.7799894878841</v>
       </c>
       <c r="N28" t="n">
-        <v>180.2228508202246</v>
+        <v>265.6485300080865</v>
       </c>
       <c r="O28" t="n">
-        <v>180.2228508202246</v>
+        <v>265.6485300080865</v>
       </c>
       <c r="P28" t="n">
-        <v>180.2228508202246</v>
+        <v>265.6485300080865</v>
       </c>
       <c r="Q28" t="n">
-        <v>265.6485300080863</v>
+        <v>265.6485300080865</v>
       </c>
       <c r="R28" t="n">
-        <v>265.6485300080863</v>
+        <v>265.6485300080865</v>
       </c>
       <c r="S28" t="n">
-        <v>243.5352495899204</v>
+        <v>243.5352495899206</v>
       </c>
       <c r="T28" t="n">
-        <v>233.2244841575348</v>
+        <v>233.224484157535</v>
       </c>
       <c r="U28" t="n">
-        <v>157.3658076608177</v>
+        <v>157.3658076608178</v>
       </c>
       <c r="V28" t="n">
         <v>125.4945806312223</v>
       </c>
       <c r="W28" t="n">
-        <v>47.9650789502274</v>
+        <v>47.96507895022745</v>
       </c>
       <c r="X28" t="n">
-        <v>39.51764967437677</v>
+        <v>39.51764967437679</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>1020.439292541341</v>
       </c>
       <c r="C29" t="n">
-        <v>882.4100026867666</v>
+        <v>882.410002686767</v>
       </c>
       <c r="D29" t="n">
-        <v>756.9396398412343</v>
+        <v>756.9396398412348</v>
       </c>
       <c r="E29" t="n">
-        <v>597.4220523296325</v>
+        <v>597.4220523296329</v>
       </c>
       <c r="F29" t="n">
-        <v>405.8637197893667</v>
+        <v>405.8637197893672</v>
       </c>
       <c r="G29" t="n">
-        <v>198.5071248614368</v>
+        <v>198.5071248614372</v>
       </c>
       <c r="H29" t="n">
-        <v>63.68006442067704</v>
+        <v>63.68006442067703</v>
       </c>
       <c r="I29" t="n">
         <v>35.89666746324745</v>
@@ -6470,13 +6470,13 @@
         <v>633.709883243603</v>
       </c>
       <c r="M29" t="n">
-        <v>925.7569203459152</v>
+        <v>925.756920345915</v>
       </c>
       <c r="N29" t="n">
         <v>1212.266136048432</v>
       </c>
       <c r="O29" t="n">
-        <v>1457.681446538518</v>
+        <v>1457.681446538517</v>
       </c>
       <c r="P29" t="n">
         <v>1653.968221977898</v>
@@ -6488,10 +6488,10 @@
         <v>1794.833373162372</v>
       </c>
       <c r="S29" t="n">
-        <v>1780.700641812818</v>
+        <v>1780.700641812817</v>
       </c>
       <c r="T29" t="n">
-        <v>1771.695269291794</v>
+        <v>1771.695269291793</v>
       </c>
       <c r="U29" t="n">
         <v>1734.731481834428</v>
@@ -6506,7 +6506,7 @@
         <v>1353.024956123141</v>
       </c>
       <c r="Y29" t="n">
-        <v>1182.591555119808</v>
+        <v>1182.591555119809</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>186.144475781052</v>
+        <v>225.3089417302837</v>
       </c>
       <c r="C30" t="n">
-        <v>186.144475781052</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="D30" t="n">
-        <v>186.144475781052</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="E30" t="n">
-        <v>186.144475781052</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="F30" t="n">
-        <v>186.144475781052</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="G30" t="n">
         <v>35.89666746324745</v>
@@ -6543,49 +6543,49 @@
         <v>35.89666746324745</v>
       </c>
       <c r="K30" t="n">
-        <v>73.74397109821845</v>
+        <v>73.74397109821844</v>
       </c>
       <c r="L30" t="n">
         <v>190.9208838174088</v>
       </c>
       <c r="M30" t="n">
-        <v>372.4154783002438</v>
+        <v>372.4154783002436</v>
       </c>
       <c r="N30" t="n">
-        <v>577.1335842118981</v>
+        <v>577.133584211898</v>
       </c>
       <c r="O30" t="n">
-        <v>708.6635738323669</v>
+        <v>708.6635738323668</v>
       </c>
       <c r="P30" t="n">
-        <v>792.1514846453997</v>
+        <v>792.1514846453996</v>
       </c>
       <c r="Q30" t="n">
-        <v>792.1514846453997</v>
+        <v>792.1514846453996</v>
       </c>
       <c r="R30" t="n">
-        <v>792.1514846453997</v>
+        <v>792.1514846453996</v>
       </c>
       <c r="S30" t="n">
-        <v>792.1514846453997</v>
+        <v>792.1514846453996</v>
       </c>
       <c r="T30" t="n">
-        <v>790.7198194914162</v>
+        <v>575.0061826983349</v>
       </c>
       <c r="U30" t="n">
-        <v>712.3441770089403</v>
+        <v>551.0954586386312</v>
       </c>
       <c r="V30" t="n">
-        <v>469.2644589125744</v>
+        <v>523.7293773353464</v>
       </c>
       <c r="W30" t="n">
-        <v>415.5795264359468</v>
+        <v>254.3308080656377</v>
       </c>
       <c r="X30" t="n">
-        <v>411.7851688457243</v>
+        <v>250.5364504754152</v>
       </c>
       <c r="Y30" t="n">
-        <v>186.144475781052</v>
+        <v>225.3089417302837</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.47685142582789</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="C31" t="n">
-        <v>71.47685142582789</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="D31" t="n">
-        <v>71.47685142582789</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="E31" t="n">
-        <v>71.47685142582789</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="F31" t="n">
-        <v>71.47685142582789</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="G31" t="n">
-        <v>71.47685142582789</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="H31" t="n">
-        <v>71.47685142582789</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="I31" t="n">
-        <v>71.47685142582789</v>
+        <v>84.09504963998521</v>
       </c>
       <c r="J31" t="n">
-        <v>71.47685142582789</v>
+        <v>84.09504963998521</v>
       </c>
       <c r="K31" t="n">
-        <v>216.4681222674319</v>
+        <v>84.09504963998521</v>
       </c>
       <c r="L31" t="n">
-        <v>216.4681222674319</v>
+        <v>102.1960719946425</v>
       </c>
       <c r="M31" t="n">
-        <v>216.4681222674319</v>
+        <v>102.1960719946425</v>
       </c>
       <c r="N31" t="n">
-        <v>216.4681222674319</v>
+        <v>102.1960719946425</v>
       </c>
       <c r="O31" t="n">
-        <v>216.4681222674319</v>
+        <v>102.1960719946425</v>
       </c>
       <c r="P31" t="n">
-        <v>216.4681222674319</v>
+        <v>255.6503407993754</v>
       </c>
       <c r="Q31" t="n">
         <v>255.6503407993754</v>
@@ -6658,10 +6658,10 @@
         <v>125.4945806312224</v>
       </c>
       <c r="W31" t="n">
-        <v>47.96507895022751</v>
+        <v>47.9650789502275</v>
       </c>
       <c r="X31" t="n">
-        <v>39.51764967437682</v>
+        <v>39.51764967437681</v>
       </c>
       <c r="Y31" t="n">
         <v>35.89666746324745</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1019.832850486846</v>
+        <v>1019.832850486845</v>
       </c>
       <c r="C32" t="n">
-        <v>881.8865652710157</v>
+        <v>881.8865652710148</v>
       </c>
       <c r="D32" t="n">
-        <v>756.499207064227</v>
+        <v>756.4992070642263</v>
       </c>
       <c r="E32" t="n">
-        <v>597.0646241913689</v>
+        <v>597.0646241913682</v>
       </c>
       <c r="F32" t="n">
-        <v>405.5892962898469</v>
+        <v>405.5892962898462</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3157060006611</v>
+        <v>198.3157060006606</v>
       </c>
       <c r="H32" t="n">
-        <v>63.57165019864441</v>
+        <v>63.57165019864436</v>
       </c>
       <c r="I32" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="J32" t="n">
-        <v>169.2685231885022</v>
+        <v>171.2457683875524</v>
       </c>
       <c r="K32" t="n">
-        <v>373.9400722737631</v>
+        <v>375.9173174728134</v>
       </c>
       <c r="L32" t="n">
-        <v>631.9512870005622</v>
+        <v>633.9285321996124</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0796769493071</v>
+        <v>926.0569221483572</v>
       </c>
       <c r="N32" t="n">
-        <v>1210.670245498257</v>
+        <v>1212.647490697307</v>
       </c>
       <c r="O32" t="n">
-        <v>1456.166908834775</v>
+        <v>1458.144154033825</v>
       </c>
       <c r="P32" t="n">
-        <v>1652.535037120588</v>
+        <v>1654.512282319638</v>
       </c>
       <c r="Q32" t="n">
-        <v>1775.077690140216</v>
+        <v>1775.077690140215</v>
       </c>
       <c r="R32" t="n">
-        <v>1793.562893997928</v>
+        <v>1793.562893997927</v>
       </c>
       <c r="S32" t="n">
-        <v>1779.513167287117</v>
+        <v>1779.513167287116</v>
       </c>
       <c r="T32" t="n">
-        <v>1770.590799404836</v>
+        <v>1770.590799404835</v>
       </c>
       <c r="U32" t="n">
-        <v>1733.710016586215</v>
+        <v>1733.710016586214</v>
       </c>
       <c r="V32" t="n">
-        <v>1625.385664473442</v>
+        <v>1625.385664473441</v>
       </c>
       <c r="W32" t="n">
-        <v>1499.8727464853</v>
+        <v>1499.872746485299</v>
       </c>
       <c r="X32" t="n">
-        <v>1352.252504791159</v>
+        <v>1352.252504791158</v>
       </c>
       <c r="Y32" t="n">
-        <v>1181.90210842657</v>
+        <v>1181.902108426569</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>370.2145779975124</v>
+        <v>162.8839183844583</v>
       </c>
       <c r="C33" t="n">
-        <v>370.2145779975124</v>
+        <v>162.8839183844583</v>
       </c>
       <c r="D33" t="n">
-        <v>209.4344617585441</v>
+        <v>162.8839183844583</v>
       </c>
       <c r="E33" t="n">
-        <v>35.87125787995856</v>
+        <v>162.8839183844583</v>
       </c>
       <c r="F33" t="n">
-        <v>35.87125787995856</v>
+        <v>162.8839183844583</v>
       </c>
       <c r="G33" t="n">
-        <v>35.87125787995856</v>
+        <v>162.8839183844583</v>
       </c>
       <c r="H33" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="I33" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="J33" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="K33" t="n">
-        <v>73.71856151492953</v>
+        <v>73.71856151492952</v>
       </c>
       <c r="L33" t="n">
-        <v>190.8954742341199</v>
+        <v>190.8954742341198</v>
       </c>
       <c r="M33" t="n">
         <v>372.3900687169547</v>
@@ -6801,28 +6801,28 @@
         <v>792.1260750621104</v>
       </c>
       <c r="R33" t="n">
-        <v>792.1260750621104</v>
+        <v>655.9999522618957</v>
       </c>
       <c r="S33" t="n">
-        <v>705.6280084522879</v>
+        <v>655.9999522618957</v>
       </c>
       <c r="T33" t="n">
-        <v>704.2793479370481</v>
+        <v>654.6512917466559</v>
       </c>
       <c r="U33" t="n">
-        <v>680.4516285160881</v>
+        <v>473.1209689030342</v>
       </c>
       <c r="V33" t="n">
-        <v>653.1685518515471</v>
+        <v>445.8378922384932</v>
       </c>
       <c r="W33" t="n">
-        <v>599.5666240136634</v>
+        <v>392.2359644006094</v>
       </c>
       <c r="X33" t="n">
-        <v>380.0586296303598</v>
+        <v>172.7279700173058</v>
       </c>
       <c r="Y33" t="n">
-        <v>370.2145779975124</v>
+        <v>162.8839183844583</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="C34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="D34" t="n">
-        <v>39.78178760851183</v>
+        <v>71.55476959212262</v>
       </c>
       <c r="E34" t="n">
-        <v>39.78178760851183</v>
+        <v>142.7976780593515</v>
       </c>
       <c r="F34" t="n">
-        <v>39.78178760851183</v>
+        <v>216.7623529304209</v>
       </c>
       <c r="G34" t="n">
-        <v>39.78178760851183</v>
+        <v>216.7623529304209</v>
       </c>
       <c r="H34" t="n">
-        <v>87.11256659614416</v>
+        <v>216.7623529304209</v>
       </c>
       <c r="I34" t="n">
-        <v>87.11256659614416</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="J34" t="n">
-        <v>179.5350559192973</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="K34" t="n">
-        <v>179.5350559192973</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="L34" t="n">
-        <v>179.5350559192973</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="M34" t="n">
-        <v>179.5350559192973</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="N34" t="n">
-        <v>179.5350559192973</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="O34" t="n">
-        <v>179.5350559192973</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="P34" t="n">
-        <v>179.5350559192973</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="Q34" t="n">
-        <v>265.0420879535916</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="R34" t="n">
-        <v>265.0420879535916</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="S34" t="n">
-        <v>243.0118121741695</v>
+        <v>243.0118121741693</v>
       </c>
       <c r="T34" t="n">
-        <v>232.7840513805276</v>
+        <v>232.7840513805274</v>
       </c>
       <c r="U34" t="n">
-        <v>157.0083795225541</v>
+        <v>157.008379522554</v>
       </c>
       <c r="V34" t="n">
-        <v>125.2201571317023</v>
+        <v>125.2201571317022</v>
       </c>
       <c r="W34" t="n">
-        <v>47.77366008945114</v>
+        <v>47.77366008945107</v>
       </c>
       <c r="X34" t="n">
-        <v>39.40923545234418</v>
+        <v>39.40923545234414</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>630.1442098352472</v>
+        <v>630.1442098352471</v>
       </c>
       <c r="C35" t="n">
         <v>550.0663537950963</v>
@@ -6926,61 +6926,61 @@
         <v>247.3743723409671</v>
       </c>
       <c r="G35" t="n">
-        <v>97.96921122746124</v>
+        <v>97.96921122746117</v>
       </c>
       <c r="H35" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="I35" t="n">
-        <v>21.09358460112436</v>
+        <v>50.66127752466407</v>
       </c>
       <c r="J35" t="n">
-        <v>21.09358460112436</v>
+        <v>242.7526354673416</v>
       </c>
       <c r="K35" t="n">
-        <v>282.1266940400383</v>
+        <v>473.0812498575465</v>
       </c>
       <c r="L35" t="n">
-        <v>350.738616853012</v>
+        <v>519.590176317014</v>
       </c>
       <c r="M35" t="n">
-        <v>431.3647185344253</v>
+        <v>600.2162779984272</v>
       </c>
       <c r="N35" t="n">
-        <v>692.3978279733392</v>
+        <v>675.3045582800455</v>
       </c>
       <c r="O35" t="n">
-        <v>726.3922030425254</v>
+        <v>709.2989333492317</v>
       </c>
       <c r="P35" t="n">
-        <v>979.4771787634226</v>
+        <v>709.2989333492317</v>
       </c>
       <c r="Q35" t="n">
-        <v>979.4771787634226</v>
+        <v>888.5584338039433</v>
       </c>
       <c r="R35" t="n">
-        <v>1054.679230056218</v>
+        <v>963.7604850967386</v>
       </c>
       <c r="S35" t="n">
-        <v>1054.679230056218</v>
+        <v>1006.707195382557</v>
       </c>
       <c r="T35" t="n">
-        <v>1054.679230056218</v>
+        <v>1054.679230056217</v>
       </c>
       <c r="U35" t="n">
-        <v>1054.679230056218</v>
+        <v>1054.679230056217</v>
       </c>
       <c r="V35" t="n">
         <v>1004.223307119124</v>
       </c>
       <c r="W35" t="n">
-        <v>936.578818306662</v>
+        <v>936.5788183066618</v>
       </c>
       <c r="X35" t="n">
-        <v>846.8270057882009</v>
+        <v>846.8270057882007</v>
       </c>
       <c r="Y35" t="n">
-        <v>734.3450385992915</v>
+        <v>734.3450385992912</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>447.6826103025751</v>
+        <v>162.1592525259729</v>
       </c>
       <c r="C36" t="n">
-        <v>258.2703360355388</v>
+        <v>162.1592525259729</v>
       </c>
       <c r="D36" t="n">
-        <v>194.6567884797099</v>
+        <v>162.1592525259729</v>
       </c>
       <c r="E36" t="n">
-        <v>21.09358460112436</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="F36" t="n">
-        <v>21.09358460112436</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="G36" t="n">
-        <v>21.09358460112436</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="H36" t="n">
-        <v>21.09358460112436</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="I36" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="K36" t="n">
         <v>58.94088823609533</v>
@@ -7038,28 +7038,28 @@
         <v>777.3484017832764</v>
       </c>
       <c r="R36" t="n">
-        <v>641.2222789830616</v>
+        <v>777.3484017832764</v>
       </c>
       <c r="S36" t="n">
-        <v>447.6826103025751</v>
+        <v>777.3484017832764</v>
       </c>
       <c r="T36" t="n">
-        <v>447.6826103025751</v>
+        <v>560.2030998362117</v>
       </c>
       <c r="U36" t="n">
-        <v>447.6826103025751</v>
+        <v>560.2030998362117</v>
       </c>
       <c r="V36" t="n">
-        <v>447.6826103025751</v>
+        <v>560.2030998362117</v>
       </c>
       <c r="W36" t="n">
-        <v>447.6826103025751</v>
+        <v>560.2030998362117</v>
       </c>
       <c r="X36" t="n">
-        <v>447.6826103025751</v>
+        <v>340.695105452908</v>
       </c>
       <c r="Y36" t="n">
-        <v>447.6826103025751</v>
+        <v>340.695105452908</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58.57889514998959</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="C37" t="n">
-        <v>58.57889514998959</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="D37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="E37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="F37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="G37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="H37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="I37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="J37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="K37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="L37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="M37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="N37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="O37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="P37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="R37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="S37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="T37" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="U37" t="n">
-        <v>40.67165246769585</v>
+        <v>40.67165246769578</v>
       </c>
       <c r="V37" t="n">
-        <v>40.67165246769585</v>
+        <v>40.67165246769578</v>
       </c>
       <c r="W37" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="X37" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>630.1442098352477</v>
+        <v>630.1442098352475</v>
       </c>
       <c r="C38" t="n">
-        <v>550.066353795097</v>
+        <v>550.0663537950968</v>
       </c>
       <c r="D38" t="n">
-        <v>482.5474247639881</v>
+        <v>482.547424763988</v>
       </c>
       <c r="E38" t="n">
-        <v>380.9812710668098</v>
+        <v>380.9812710668097</v>
       </c>
       <c r="F38" t="n">
-        <v>247.3743723409673</v>
+        <v>247.3743723409674</v>
       </c>
       <c r="G38" t="n">
-        <v>97.96921122746124</v>
+        <v>97.96921122746117</v>
       </c>
       <c r="H38" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="I38" t="n">
-        <v>21.09358460112436</v>
+        <v>50.66127752466407</v>
       </c>
       <c r="J38" t="n">
-        <v>21.09358460112436</v>
+        <v>50.66127752466407</v>
       </c>
       <c r="K38" t="n">
-        <v>199.4262819420974</v>
+        <v>50.66127752466407</v>
       </c>
       <c r="L38" t="n">
-        <v>245.9352084015649</v>
+        <v>97.17020398413152</v>
       </c>
       <c r="M38" t="n">
-        <v>326.5613100829781</v>
+        <v>358.2033134230453</v>
       </c>
       <c r="N38" t="n">
-        <v>401.6495903645963</v>
+        <v>619.2364228619591</v>
       </c>
       <c r="O38" t="n">
-        <v>435.6439654337825</v>
+        <v>657.8501761743112</v>
       </c>
       <c r="P38" t="n">
-        <v>688.7289411546797</v>
+        <v>910.9351518952085</v>
       </c>
       <c r="Q38" t="n">
-        <v>867.9884416093912</v>
+        <v>910.9351518952085</v>
       </c>
       <c r="R38" t="n">
-        <v>943.1904929021865</v>
+        <v>986.1372031880038</v>
       </c>
       <c r="S38" t="n">
-        <v>986.1372031880044</v>
+        <v>986.1372031880038</v>
       </c>
       <c r="T38" t="n">
         <v>1034.109237861665</v>
       </c>
       <c r="U38" t="n">
-        <v>1054.679230056218</v>
+        <v>1054.679230056217</v>
       </c>
       <c r="V38" t="n">
         <v>1004.223307119124</v>
       </c>
       <c r="W38" t="n">
-        <v>936.5788183066625</v>
+        <v>936.5788183066621</v>
       </c>
       <c r="X38" t="n">
-        <v>846.8270057882013</v>
+        <v>846.8270057882009</v>
       </c>
       <c r="Y38" t="n">
-        <v>734.3450385992919</v>
+        <v>734.3450385992916</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.24560008034143</v>
+        <v>148.1062451056241</v>
       </c>
       <c r="C39" t="n">
-        <v>21.09358460112436</v>
+        <v>148.1062451056241</v>
       </c>
       <c r="D39" t="n">
-        <v>21.09358460112436</v>
+        <v>148.1062451056241</v>
       </c>
       <c r="E39" t="n">
-        <v>21.09358460112436</v>
+        <v>148.1062451056241</v>
       </c>
       <c r="F39" t="n">
-        <v>21.09358460112436</v>
+        <v>148.1062451056241</v>
       </c>
       <c r="G39" t="n">
-        <v>21.09358460112436</v>
+        <v>148.1062451056241</v>
       </c>
       <c r="H39" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="I39" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="K39" t="n">
         <v>58.94088823609533</v>
@@ -7275,28 +7275,28 @@
         <v>777.3484017832764</v>
       </c>
       <c r="R39" t="n">
-        <v>777.3484017832764</v>
+        <v>641.2222789830616</v>
       </c>
       <c r="S39" t="n">
-        <v>777.3484017832764</v>
+        <v>641.2222789830616</v>
       </c>
       <c r="T39" t="n">
-        <v>560.2030998362117</v>
+        <v>641.2222789830616</v>
       </c>
       <c r="U39" t="n">
-        <v>320.5787389834268</v>
+        <v>401.5979181302768</v>
       </c>
       <c r="V39" t="n">
-        <v>320.5787389834268</v>
+        <v>401.5979181302768</v>
       </c>
       <c r="W39" t="n">
-        <v>54.24560008034143</v>
+        <v>401.5979181302768</v>
       </c>
       <c r="X39" t="n">
-        <v>54.24560008034143</v>
+        <v>326.6420980325592</v>
       </c>
       <c r="Y39" t="n">
-        <v>54.24560008034143</v>
+        <v>326.6420980325592</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="C40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="D40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="E40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="F40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="G40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="H40" t="n">
-        <v>58.57889514998959</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="I40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="J40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="K40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="L40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="M40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="N40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="O40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="P40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="R40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="S40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="T40" t="n">
-        <v>58.57889514998959</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="U40" t="n">
-        <v>40.67165246769585</v>
+        <v>40.67165246769578</v>
       </c>
       <c r="V40" t="n">
-        <v>40.67165246769585</v>
+        <v>40.67165246769578</v>
       </c>
       <c r="W40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="X40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112435</v>
       </c>
     </row>
     <row r="41">
@@ -7415,22 +7415,22 @@
         <v>422.3977245625134</v>
       </c>
       <c r="L41" t="n">
-        <v>468.9066510219808</v>
+        <v>707.5580938008563</v>
       </c>
       <c r="M41" t="n">
-        <v>549.5327527033941</v>
+        <v>788.1841954822696</v>
       </c>
       <c r="N41" t="n">
-        <v>863.2724757638879</v>
+        <v>1101.923918542763</v>
       </c>
       <c r="O41" t="n">
-        <v>1101.73279704952</v>
+        <v>1147.367155418775</v>
       </c>
       <c r="P41" t="n">
-        <v>1325.250079846877</v>
+        <v>1370.884438216133</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.250079846877</v>
+        <v>1370.884438216133</v>
       </c>
       <c r="R41" t="n">
         <v>1370.884438216133</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>528.4935547703798</v>
+        <v>522.8243923468804</v>
       </c>
       <c r="C42" t="n">
-        <v>339.0812805033435</v>
+        <v>522.8243923468804</v>
       </c>
       <c r="D42" t="n">
-        <v>178.3011642643752</v>
+        <v>362.0442761079121</v>
       </c>
       <c r="E42" t="n">
-        <v>178.3011642643752</v>
+        <v>188.4810722293266</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3011642643752</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="G42" t="n">
         <v>28.05335594657065</v>
@@ -7518,22 +7518,22 @@
         <v>784.3081731287227</v>
       </c>
       <c r="T42" t="n">
-        <v>784.3081731287227</v>
+        <v>774.3666209307507</v>
       </c>
       <c r="U42" t="n">
-        <v>784.3081731287227</v>
+        <v>774.3666209307507</v>
       </c>
       <c r="V42" t="n">
-        <v>784.3081731287227</v>
+        <v>774.3666209307507</v>
       </c>
       <c r="W42" t="n">
-        <v>748.0015491536834</v>
+        <v>748.4650854115528</v>
       </c>
       <c r="X42" t="n">
-        <v>528.4935547703798</v>
+        <v>748.4650854115528</v>
       </c>
       <c r="Y42" t="n">
-        <v>528.4935547703798</v>
+        <v>522.8243923468804</v>
       </c>
     </row>
     <row r="43">
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.9253555622809</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="C43" t="n">
-        <v>49.9253555622809</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="D43" t="n">
-        <v>49.9253555622809</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="E43" t="n">
-        <v>49.9253555622809</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="F43" t="n">
-        <v>49.9253555622809</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="G43" t="n">
-        <v>49.9253555622809</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="H43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="I43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="J43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="K43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="L43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="M43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="N43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="O43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="P43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.4052890614572</v>
+        <v>92.73387371490151</v>
       </c>
       <c r="R43" t="n">
-        <v>124.4052890614572</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="S43" t="n">
         <v>129.9625702815895</v>
@@ -7612,7 +7612,7 @@
         <v>28.05335594657065</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.9253555622809</v>
+        <v>28.05335594657065</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.1122023226571</v>
+        <v>818.1122023226574</v>
       </c>
       <c r="C44" t="n">
-        <v>707.8663094255126</v>
+        <v>707.8663094255128</v>
       </c>
       <c r="D44" t="n">
-        <v>610.1793435374097</v>
+        <v>610.17934353741</v>
       </c>
       <c r="E44" t="n">
-        <v>478.4451529832373</v>
+        <v>478.4451529832374</v>
       </c>
       <c r="F44" t="n">
-        <v>314.670217400401</v>
+        <v>314.6702174004012</v>
       </c>
       <c r="G44" t="n">
         <v>135.0970194299014</v>
@@ -7649,25 +7649,25 @@
         <v>190.5770209657085</v>
       </c>
       <c r="K44" t="n">
-        <v>422.3977245625134</v>
+        <v>297.5337962004455</v>
       </c>
       <c r="L44" t="n">
-        <v>686.7516146007049</v>
+        <v>344.0427226599129</v>
       </c>
       <c r="M44" t="n">
-        <v>767.3777162821182</v>
+        <v>663.3202671202017</v>
       </c>
       <c r="N44" t="n">
-        <v>1081.117439342612</v>
+        <v>738.40854740182</v>
       </c>
       <c r="O44" t="n">
-        <v>1115.111814411798</v>
+        <v>1011.054365249882</v>
       </c>
       <c r="P44" t="n">
-        <v>1338.629097209156</v>
+        <v>1234.571648047239</v>
       </c>
       <c r="Q44" t="n">
-        <v>1338.629097209156</v>
+        <v>1384.263455578411</v>
       </c>
       <c r="R44" t="n">
         <v>1384.263455578411</v>
@@ -7682,7 +7682,7 @@
         <v>1393.487406828597</v>
       </c>
       <c r="V44" t="n">
-        <v>1312.863447034509</v>
+        <v>1312.86344703451</v>
       </c>
       <c r="W44" t="n">
         <v>1215.050921365054</v>
@@ -7691,7 +7691,7 @@
         <v>1095.131071989599</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.4810679436953</v>
+        <v>952.4810679436955</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>178.3011642643752</v>
+        <v>457.7343178960203</v>
       </c>
       <c r="C45" t="n">
-        <v>178.3011642643752</v>
+        <v>457.7343178960203</v>
       </c>
       <c r="D45" t="n">
-        <v>178.3011642643752</v>
+        <v>296.9542016570521</v>
       </c>
       <c r="E45" t="n">
-        <v>178.3011642643752</v>
+        <v>296.9542016570521</v>
       </c>
       <c r="F45" t="n">
-        <v>178.3011642643752</v>
+        <v>136.5264853742962</v>
       </c>
       <c r="G45" t="n">
-        <v>28.05335594657065</v>
+        <v>136.5264853742962</v>
       </c>
       <c r="H45" t="n">
-        <v>28.05335594657065</v>
+        <v>136.5264853742962</v>
       </c>
       <c r="I45" t="n">
         <v>28.05335594657065</v>
@@ -7749,28 +7749,28 @@
         <v>784.3081731287227</v>
       </c>
       <c r="R45" t="n">
-        <v>784.3081731287227</v>
+        <v>648.182050328508</v>
       </c>
       <c r="S45" t="n">
-        <v>784.3081731287227</v>
+        <v>648.182050328508</v>
       </c>
       <c r="T45" t="n">
-        <v>649.3513872315491</v>
+        <v>648.182050328508</v>
       </c>
       <c r="U45" t="n">
-        <v>649.3513872315491</v>
+        <v>648.182050328508</v>
       </c>
       <c r="V45" t="n">
-        <v>649.3513872315491</v>
+        <v>648.182050328508</v>
       </c>
       <c r="W45" t="n">
-        <v>623.4498517123511</v>
+        <v>622.28051480931</v>
       </c>
       <c r="X45" t="n">
-        <v>403.9418573290475</v>
+        <v>622.28051480931</v>
       </c>
       <c r="Y45" t="n">
-        <v>178.3011642643752</v>
+        <v>457.7343178960203</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.73493863941949</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="C46" t="n">
-        <v>51.73493863941949</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="D46" t="n">
-        <v>51.73493863941949</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="E46" t="n">
-        <v>112.837644123894</v>
+        <v>58.3254970488707</v>
       </c>
       <c r="F46" t="n">
-        <v>112.837644123894</v>
+        <v>58.3254970488707</v>
       </c>
       <c r="G46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="H46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="I46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="J46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="K46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="L46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="M46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="N46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="O46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="P46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="Q46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="R46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="S46" t="n">
-        <v>112.837644123894</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="T46" t="n">
         <v>129.9625702815895</v>
@@ -7849,7 +7849,7 @@
         <v>28.05335594657065</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.73493863941949</v>
+        <v>28.05335594657065</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>171.3658051887314</v>
+        <v>171.2365425770137</v>
       </c>
       <c r="L3" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M3" t="n">
         <v>173.4035213848624</v>
@@ -8070,7 +8070,7 @@
         <v>163.4361383816801</v>
       </c>
       <c r="O3" t="n">
-        <v>177.037405250518</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
         <v>166.6480266854964</v>
@@ -8222,10 +8222,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
-        <v>284.2216541772863</v>
+        <v>284.2216541772862</v>
       </c>
       <c r="N5" t="n">
-        <v>283.0831872278545</v>
+        <v>283.0831872278544</v>
       </c>
       <c r="O5" t="n">
         <v>246.758517458259</v>
@@ -8295,19 +8295,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>171.3658051887315</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L6" t="n">
-        <v>172.2355929714601</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M6" t="n">
-        <v>176.4735084131582</v>
+        <v>176.4735084131581</v>
       </c>
       <c r="N6" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O6" t="n">
-        <v>177.1666678622358</v>
+        <v>177.1666678622357</v>
       </c>
       <c r="P6" t="n">
         <v>163.4487770454829</v>
@@ -8538,16 +8538,16 @@
         <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>173.5713770459633</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>160.4047444027676</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>166.9656464766077</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9249,7 +9249,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813100001</v>
       </c>
       <c r="N18" t="n">
         <v>310.6138585746227</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.0656784238473</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>16.04564245459812</v>
+        <v>16.04564245459824</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>159.9587718714987</v>
       </c>
       <c r="E11" t="n">
-        <v>193.6655242909075</v>
+        <v>5.427738874355384</v>
       </c>
       <c r="F11" t="n">
-        <v>37.14807645273265</v>
+        <v>225.3858618692849</v>
       </c>
       <c r="G11" t="n">
-        <v>52.78835621652016</v>
+        <v>241.0261416330724</v>
       </c>
       <c r="H11" t="n">
-        <v>169.2219024907744</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>63.24867564227702</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17.15336415818042</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.73451669048089</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.33726223721337</v>
       </c>
       <c r="V11" t="n">
         <v>143.0663958384234</v>
       </c>
       <c r="W11" t="n">
-        <v>111.278928347588</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.9693265239775</v>
+        <v>143.7938807829609</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.23439423116906</v>
+        <v>204.4721796477213</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.9587718714987</v>
       </c>
       <c r="E14" t="n">
-        <v>193.6655242909075</v>
+        <v>193.6655242909076</v>
       </c>
       <c r="F14" t="n">
         <v>225.3858618692849</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0261416330724</v>
+        <v>52.78835621652019</v>
       </c>
       <c r="H14" t="n">
-        <v>169.2219024907744</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>63.24867564227702</v>
+        <v>63.24867564227706</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17.15336415818042</v>
+        <v>17.15336415818046</v>
       </c>
       <c r="S14" t="n">
-        <v>49.73451669048088</v>
+        <v>49.73451669048092</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.33726223721334</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>143.0663958384234</v>
       </c>
       <c r="W14" t="n">
-        <v>131.6149137050677</v>
+        <v>160.0830760550383</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.9693265239775</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.4721796477213</v>
+        <v>120.8064732083913</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835134.813632634</v>
+        <v>835134.8136326339</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835134.813632634</v>
+        <v>835134.8136326339</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>972090.4037443898</v>
+        <v>972090.4037443895</v>
       </c>
     </row>
     <row r="8">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573586.8552174477</v>
+        <v>573586.8552174476</v>
       </c>
       <c r="C2" t="n">
-        <v>573586.8552174477</v>
+        <v>573586.8552174476</v>
       </c>
       <c r="D2" t="n">
         <v>573603.2888654397</v>
@@ -26323,37 +26323,37 @@
         <v>493488.7535101926</v>
       </c>
       <c r="F2" t="n">
-        <v>493488.7535101927</v>
+        <v>493488.7535101929</v>
       </c>
       <c r="G2" t="n">
+        <v>574417.0567580485</v>
+      </c>
+      <c r="H2" t="n">
         <v>574417.0567580484</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>574417.0567580485</v>
+      </c>
+      <c r="J2" t="n">
         <v>574417.0567580482</v>
       </c>
-      <c r="I2" t="n">
-        <v>574417.0567580484</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>574417.0567580487</v>
+      </c>
+      <c r="L2" t="n">
         <v>574417.0567580485</v>
-      </c>
-      <c r="K2" t="n">
-        <v>574417.0567580485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>574417.0567580484</v>
       </c>
       <c r="M2" t="n">
         <v>574417.0567580485</v>
       </c>
       <c r="N2" t="n">
+        <v>574417.0567580487</v>
+      </c>
+      <c r="O2" t="n">
+        <v>574417.0567580482</v>
+      </c>
+      <c r="P2" t="n">
         <v>574417.0567580484</v>
-      </c>
-      <c r="O2" t="n">
-        <v>574417.0567580484</v>
-      </c>
-      <c r="P2" t="n">
-        <v>574417.056758048</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>98.66223571287598</v>
+        <v>98.6622357129113</v>
       </c>
       <c r="E3" t="n">
         <v>278414.6253386763</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95781.95962135981</v>
+        <v>95781.95962135983</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>144050.8638359678</v>
+        <v>144050.8638359677</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95847.69929524485</v>
+        <v>95847.69929524489</v>
       </c>
       <c r="M3" t="n">
-        <v>45831.79590713832</v>
+        <v>45831.79590713835</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72106.10470368381</v>
+        <v>72106.10470368376</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,13 +26439,13 @@
         <v>337932.2569579341</v>
       </c>
       <c r="J4" t="n">
-        <v>338620.7243128588</v>
+        <v>338620.7243128587</v>
       </c>
       <c r="K4" t="n">
         <v>338620.7243128588</v>
       </c>
       <c r="L4" t="n">
-        <v>338619.2559728172</v>
+        <v>338619.2559728171</v>
       </c>
       <c r="M4" t="n">
         <v>337810.8829795382</v>
@@ -26457,7 +26457,7 @@
         <v>338183.5397274417</v>
       </c>
       <c r="P4" t="n">
-        <v>338183.5397274416</v>
+        <v>338183.5397274417</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>33822.11437811282</v>
       </c>
       <c r="C5" t="n">
-        <v>33822.11437811283</v>
+        <v>33822.11437811282</v>
       </c>
       <c r="D5" t="n">
         <v>33841.42566141239</v>
       </c>
       <c r="E5" t="n">
-        <v>28591.63158141765</v>
+        <v>28591.63158141763</v>
       </c>
       <c r="F5" t="n">
-        <v>28591.63158141765</v>
+        <v>28591.63158141764</v>
       </c>
       <c r="G5" t="n">
         <v>38656.99853567776</v>
@@ -26494,16 +26494,16 @@
         <v>47433.12923790392</v>
       </c>
       <c r="K5" t="n">
-        <v>47433.12923790392</v>
+        <v>47433.12923790391</v>
       </c>
       <c r="L5" t="n">
-        <v>47420.72629040915</v>
+        <v>47420.72629040914</v>
       </c>
       <c r="M5" t="n">
-        <v>41005.98616114168</v>
+        <v>41005.98616114167</v>
       </c>
       <c r="N5" t="n">
-        <v>41005.98616114168</v>
+        <v>41005.98616114167</v>
       </c>
       <c r="O5" t="n">
         <v>43784.57766005555</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156347.9687874282</v>
+        <v>156344.7757045797</v>
       </c>
       <c r="C6" t="n">
-        <v>157420.1109245385</v>
+        <v>157416.9178416899</v>
       </c>
       <c r="D6" t="n">
-        <v>157362.2343206496</v>
+        <v>157359.1044441395</v>
       </c>
       <c r="E6" t="n">
-        <v>-80544.83001495957</v>
+        <v>-80856.09271975895</v>
       </c>
       <c r="F6" t="n">
-        <v>197869.7953237169</v>
+        <v>197558.5326189176</v>
       </c>
       <c r="G6" t="n">
-        <v>102045.8416430767</v>
+        <v>102045.8416430768</v>
       </c>
       <c r="H6" t="n">
-        <v>197827.8012644364</v>
+        <v>197827.8012644365</v>
       </c>
       <c r="I6" t="n">
-        <v>197827.8012644365</v>
+        <v>197827.8012644366</v>
       </c>
       <c r="J6" t="n">
-        <v>44312.339371318</v>
+        <v>44312.33937131789</v>
       </c>
       <c r="K6" t="n">
-        <v>188363.2032072858</v>
+        <v>188363.203207286</v>
       </c>
       <c r="L6" t="n">
-        <v>92529.37519957715</v>
+        <v>92529.37519957733</v>
       </c>
       <c r="M6" t="n">
-        <v>149768.3917102302</v>
+        <v>149768.3917102303</v>
       </c>
       <c r="N6" t="n">
-        <v>195600.1876173685</v>
+        <v>195600.1876173689</v>
       </c>
       <c r="O6" t="n">
         <v>120342.8346668673</v>
       </c>
       <c r="P6" t="n">
-        <v>192448.9393705509</v>
+        <v>192448.9393705511</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>213.5565004251503</v>
       </c>
       <c r="L2" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="M2" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="O2" t="n">
         <v>241.0620634130056</v>
@@ -26790,7 +26790,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="C4" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="D4" t="n">
         <v>3.516869431124803</v>
@@ -26811,19 +26811,19 @@
         <v>188.2377854165522</v>
       </c>
       <c r="J4" t="n">
-        <v>448.7083432905932</v>
+        <v>448.7083432905931</v>
       </c>
       <c r="K4" t="n">
         <v>448.7083432905931</v>
       </c>
       <c r="L4" t="n">
-        <v>448.3907234994819</v>
+        <v>448.3907234994817</v>
       </c>
       <c r="M4" t="n">
-        <v>263.6698075140545</v>
+        <v>263.6698075140544</v>
       </c>
       <c r="N4" t="n">
-        <v>263.6698075140545</v>
+        <v>263.6698075140544</v>
       </c>
       <c r="O4" t="n">
         <v>350.6669493321331</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.82905089845065</v>
+        <v>93.82905089845059</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>119.8096241190561</v>
       </c>
       <c r="M2" t="n">
-        <v>57.28974488392291</v>
+        <v>57.28974488392294</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.96269441002673</v>
+        <v>63.96269441002661</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3176197911112126</v>
+        <v>0.3176197911113263</v>
       </c>
       <c r="E4" t="n">
         <v>184.7209159854274</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.6698075140545</v>
+        <v>263.6698075140544</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>86.9971418180786</v>
+        <v>86.99714181807872</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.82905089845065</v>
+        <v>93.82905089845059</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3176197911112126</v>
+        <v>0.3176197911113263</v>
       </c>
       <c r="M4" t="n">
         <v>184.7209159854274</v>
@@ -27397,10 +27397,10 @@
         <v>351.1867109187684</v>
       </c>
       <c r="I2" t="n">
-        <v>256.6898085504863</v>
+        <v>256.8197240036773</v>
       </c>
       <c r="J2" t="n">
-        <v>111.4313123442445</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K2" t="n">
         <v>58.46339092876153</v>
@@ -27464,7 +27464,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E3" t="n">
-        <v>169.0096727568758</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F3" t="n">
         <v>158.8234391199283</v>
@@ -27473,13 +27473,13 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H3" t="n">
-        <v>127.8372169228968</v>
+        <v>124.6379672828833</v>
       </c>
       <c r="I3" t="n">
-        <v>114.855819447717</v>
+        <v>111.6565698077035</v>
       </c>
       <c r="J3" t="n">
-        <v>73.03491363274843</v>
+        <v>69.83566399273495</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T3" t="n">
         <v>215.8480604164874</v>
@@ -27515,7 +27515,7 @@
         <v>237.2423862021824</v>
       </c>
       <c r="V3" t="n">
-        <v>240.6489209154022</v>
+        <v>237.8310218324784</v>
       </c>
       <c r="W3" t="n">
         <v>266.7045835770116</v>
@@ -27704,7 +27704,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F6" t="n">
-        <v>156.0055400370044</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
         <v>148.9622183950918</v>
@@ -27713,10 +27713,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I6" t="n">
-        <v>111.6565698077034</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J6" t="n">
-        <v>69.83566399273484</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,13 +27737,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.64768193211606</v>
+        <v>31.44843229210258</v>
       </c>
       <c r="R6" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S6" t="n">
-        <v>192.4336248079264</v>
+        <v>192.8149753650161</v>
       </c>
       <c r="T6" t="n">
         <v>215.8480604164874</v>
@@ -27755,7 +27755,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W6" t="n">
-        <v>266.7045835770116</v>
+        <v>263.5053339369981</v>
       </c>
       <c r="X6" t="n">
         <v>217.3129144394706</v>
@@ -27889,13 +27889,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>33.78365208844627</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
         <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.6328276992101</v>
+        <v>133.4551793114576</v>
       </c>
       <c r="R8" t="n">
         <v>220.4301160555486</v>
@@ -27938,7 +27938,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>168.7299132448649</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
@@ -27947,7 +27947,7 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>124.739558327962</v>
+        <v>124.320347491772</v>
       </c>
       <c r="I9" t="n">
         <v>111.3389500165922</v>
@@ -27977,7 +27977,7 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>144.7140833671753</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -28111,28 +28111,28 @@
         <v>177.8133877707286</v>
       </c>
       <c r="J11" t="n">
-        <v>88.13328644316302</v>
+        <v>76.89674521185628</v>
       </c>
       <c r="K11" t="n">
-        <v>6.899736547546127</v>
+        <v>177.8133877707286</v>
       </c>
       <c r="L11" t="n">
-        <v>141.2590718211305</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.7972786676498</v>
       </c>
       <c r="N11" t="n">
-        <v>112.3910376573418</v>
+        <v>66.50456650280005</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9000328214146</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.28703028436161</v>
+        <v>177.8133877707286</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.8133877707286</v>
+        <v>89.85821742192294</v>
       </c>
       <c r="R11" t="n">
         <v>177.8133877707286</v>
@@ -28172,25 +28172,25 @@
         <v>177.8133877707286</v>
       </c>
       <c r="D12" t="n">
-        <v>92.1195434340148</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7425338994548</v>
+        <v>8.231057212953971</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.54373878807822</v>
+        <v>52.54373878807823</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,10 +28211,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.962098501482309</v>
+        <v>6.962098501482316</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S12" t="n">
         <v>177.8133877707286</v>
@@ -28245,19 +28245,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.8133877707286</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>177.8133877707286</v>
       </c>
       <c r="D13" t="n">
-        <v>177.8133877707286</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>177.8133877707286</v>
       </c>
       <c r="F13" t="n">
-        <v>177.8133877707286</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.7013833799563</v>
@@ -28266,31 +28266,31 @@
         <v>177.8133877707286</v>
       </c>
       <c r="I13" t="n">
+        <v>164.871265903193</v>
+      </c>
+      <c r="J13" t="n">
         <v>177.8133877707286</v>
       </c>
-      <c r="J13" t="n">
-        <v>120.2826251961399</v>
-      </c>
       <c r="K13" t="n">
-        <v>143.7372532165255</v>
+        <v>67.10067129221699</v>
       </c>
       <c r="L13" t="n">
         <v>32.2422765859413</v>
       </c>
       <c r="M13" t="n">
+        <v>25.31224314158866</v>
+      </c>
+      <c r="N13" t="n">
         <v>177.8133877707286</v>
-      </c>
-      <c r="N13" t="n">
-        <v>16.61326724243499</v>
       </c>
       <c r="O13" t="n">
         <v>177.8133877707286</v>
       </c>
       <c r="P13" t="n">
-        <v>58.55218850117777</v>
+        <v>103.0694118155382</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2679355889264</v>
+        <v>177.8133877707286</v>
       </c>
       <c r="R13" t="n">
         <v>177.8133877707286</v>
@@ -28348,28 +28348,28 @@
         <v>177.8133877707286</v>
       </c>
       <c r="J14" t="n">
-        <v>76.89674521185627</v>
+        <v>76.89674521185628</v>
       </c>
       <c r="K14" t="n">
-        <v>6.899736547546127</v>
+        <v>6.899736547546141</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>83.51818490456797</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.7972786676499</v>
       </c>
       <c r="N14" t="n">
-        <v>112.3910376573418</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9000328214146</v>
+        <v>153.9000328214147</v>
       </c>
       <c r="P14" t="n">
-        <v>167.7826433367989</v>
+        <v>177.8133877707286</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.8133877707286</v>
+        <v>89.85821742192294</v>
       </c>
       <c r="R14" t="n">
         <v>177.8133877707286</v>
@@ -28412,7 +28412,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28424,10 +28424,10 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3883981334483</v>
+        <v>80.01766611227134</v>
       </c>
       <c r="J15" t="n">
-        <v>52.54373878807822</v>
+        <v>52.54373878807823</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.962098501482309</v>
+        <v>6.962098501482316</v>
       </c>
       <c r="R15" t="n">
         <v>134.7648615722126</v>
       </c>
       <c r="S15" t="n">
-        <v>3.36648657712945</v>
+        <v>3.366486577129447</v>
       </c>
       <c r="T15" t="n">
         <v>177.8133877707286</v>
@@ -28466,10 +28466,10 @@
         <v>177.8133877707286</v>
       </c>
       <c r="W15" t="n">
-        <v>78.46679816045938</v>
+        <v>177.8133877707286</v>
       </c>
       <c r="X15" t="n">
-        <v>77.96167352002104</v>
+        <v>177.8133877707286</v>
       </c>
       <c r="Y15" t="n">
         <v>177.8133877707286</v>
@@ -28485,7 +28485,7 @@
         <v>177.8133877707286</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>177.8133877707286</v>
       </c>
       <c r="D16" t="n">
         <v>177.8133877707286</v>
@@ -28503,7 +28503,7 @@
         <v>177.8133877707286</v>
       </c>
       <c r="I16" t="n">
-        <v>177.8133877707286</v>
+        <v>164.871265903193</v>
       </c>
       <c r="J16" t="n">
         <v>120.2826251961399</v>
@@ -28515,13 +28515,13 @@
         <v>32.2422765859413</v>
       </c>
       <c r="M16" t="n">
+        <v>25.31224314158866</v>
+      </c>
+      <c r="N16" t="n">
+        <v>138.8683947941356</v>
+      </c>
+      <c r="O16" t="n">
         <v>177.8133877707286</v>
-      </c>
-      <c r="N16" t="n">
-        <v>16.61326724243499</v>
-      </c>
-      <c r="O16" t="n">
-        <v>145.9814556245093</v>
       </c>
       <c r="P16" t="n">
         <v>58.55218850117777</v>
@@ -28585,10 +28585,10 @@
         <v>297.5408372974284</v>
       </c>
       <c r="J17" t="n">
-        <v>237.1256841051074</v>
+        <v>265.1345306284085</v>
       </c>
       <c r="K17" t="n">
-        <v>6.899736547546127</v>
+        <v>166.3509457580512</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,16 +28597,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>112.3910376573418</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.28703028436161</v>
+        <v>15.28703028436163</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.85821742192292</v>
+        <v>89.85821742192294</v>
       </c>
       <c r="R17" t="n">
         <v>297.5408372974284</v>
@@ -28615,7 +28615,7 @@
         <v>227.5479044612095</v>
       </c>
       <c r="T17" t="n">
-        <v>297.5408372974284</v>
+        <v>222.4718192209641</v>
       </c>
       <c r="U17" t="n">
         <v>250.1506500079419</v>
@@ -28652,19 +28652,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H18" t="n">
         <v>125.7425338994548</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3883981334483</v>
+        <v>30.52885843738548</v>
       </c>
       <c r="J18" t="n">
-        <v>52.54373878807822</v>
+        <v>52.54373878807823</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.962098501482309</v>
+        <v>6.962098501482316</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.1395472566565</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T18" t="n">
         <v>26.73606351104184</v>
@@ -28700,7 +28700,7 @@
         <v>237.228117244257</v>
       </c>
       <c r="V18" t="n">
-        <v>52.41113549885003</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28752,13 +28752,13 @@
         <v>32.2422765859413</v>
       </c>
       <c r="M19" t="n">
-        <v>25.31224314158865</v>
+        <v>25.31224314158866</v>
       </c>
       <c r="N19" t="n">
-        <v>16.61326724243499</v>
+        <v>16.613267242435</v>
       </c>
       <c r="O19" t="n">
-        <v>37.56488603590386</v>
+        <v>37.56488603590387</v>
       </c>
       <c r="P19" t="n">
         <v>58.55218850117777</v>
@@ -28822,10 +28822,10 @@
         <v>297.5408372974284</v>
       </c>
       <c r="J20" t="n">
-        <v>76.89674521185627</v>
+        <v>76.89674521185628</v>
       </c>
       <c r="K20" t="n">
-        <v>6.899736547546127</v>
+        <v>6.899736547546141</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28837,25 +28837,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9000328214147</v>
       </c>
       <c r="P20" t="n">
-        <v>203.5248157009138</v>
+        <v>15.28703028436163</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.85821742192292</v>
+        <v>278.0960028384752</v>
       </c>
       <c r="R20" t="n">
-        <v>297.5408372974284</v>
+        <v>194.966751928909</v>
       </c>
       <c r="S20" t="n">
         <v>297.5408372974284</v>
       </c>
       <c r="T20" t="n">
-        <v>264.5399083057639</v>
+        <v>260.604148142355</v>
       </c>
       <c r="U20" t="n">
-        <v>297.5408372974284</v>
+        <v>250.1506500079419</v>
       </c>
       <c r="V20" t="n">
         <v>297.5408372974284</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>117.6194172440288</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>64.92244984460838</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28895,13 +28895,13 @@
         <v>148.7453302346265</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7425338994548</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J21" t="n">
-        <v>52.54373878807822</v>
+        <v>52.54373878807823</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.962098501482309</v>
+        <v>6.962098501482316</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.6042719936817</v>
@@ -28937,7 +28937,7 @@
         <v>48.99033182770479</v>
       </c>
       <c r="V21" t="n">
-        <v>52.41113549885003</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28989,13 +28989,13 @@
         <v>32.2422765859413</v>
       </c>
       <c r="M22" t="n">
-        <v>25.31224314158865</v>
+        <v>25.31224314158866</v>
       </c>
       <c r="N22" t="n">
-        <v>16.61326724243499</v>
+        <v>16.613267242435</v>
       </c>
       <c r="O22" t="n">
-        <v>37.56488603590386</v>
+        <v>37.56488603590387</v>
       </c>
       <c r="P22" t="n">
         <v>58.55218850117777</v>
@@ -29059,16 +29059,16 @@
         <v>297.5408372974284</v>
       </c>
       <c r="J23" t="n">
-        <v>76.89674521185627</v>
+        <v>176.5293893501332</v>
       </c>
       <c r="K23" t="n">
-        <v>6.899736547546127</v>
+        <v>6.899736547546141</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.2590718211305</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.7972786676498</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5248157009138</v>
+        <v>15.28703028436163</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.85821742192292</v>
+        <v>89.85821742192294</v>
       </c>
       <c r="R23" t="n">
-        <v>264.5399083057638</v>
+        <v>297.5408372974284</v>
       </c>
       <c r="S23" t="n">
-        <v>297.5408372974284</v>
+        <v>227.5479044612095</v>
       </c>
       <c r="T23" t="n">
-        <v>297.5408372974284</v>
+        <v>222.4718192209641</v>
       </c>
       <c r="U23" t="n">
-        <v>297.5408372974284</v>
+        <v>250.1506500079419</v>
       </c>
       <c r="V23" t="n">
         <v>297.5408372974284</v>
@@ -29120,13 +29120,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>148.7453302346265</v>
@@ -29135,10 +29135,10 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.54373878807822</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.962098501482309</v>
+        <v>6.962098501482316</v>
       </c>
       <c r="R24" t="n">
         <v>134.7648615722126</v>
       </c>
       <c r="S24" t="n">
-        <v>3.36648657712945</v>
+        <v>3.366486577129479</v>
       </c>
       <c r="T24" t="n">
         <v>214.973848927594</v>
       </c>
       <c r="U24" t="n">
-        <v>237.228117244257</v>
+        <v>48.99033182770481</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>231.4225328070152</v>
       </c>
       <c r="X24" t="n">
-        <v>194.2751745443977</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>35.1465007174734</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29226,13 +29226,13 @@
         <v>32.2422765859413</v>
       </c>
       <c r="M25" t="n">
-        <v>25.31224314158865</v>
+        <v>25.31224314158866</v>
       </c>
       <c r="N25" t="n">
-        <v>16.61326724243499</v>
+        <v>16.613267242435</v>
       </c>
       <c r="O25" t="n">
-        <v>37.56488603590386</v>
+        <v>37.56488603590387</v>
       </c>
       <c r="P25" t="n">
         <v>58.55218850117777</v>
@@ -29354,16 +29354,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7453302346265</v>
@@ -29372,10 +29372,10 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.44406240780434</v>
+        <v>52.54373878807823</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.962098501482309</v>
+        <v>6.962098501482316</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T27" t="n">
         <v>213.5565004251504</v>
@@ -29414,10 +29414,10 @@
         <v>213.5565004251504</v>
       </c>
       <c r="W27" t="n">
+        <v>156.5821707670676</v>
+      </c>
+      <c r="X27" t="n">
         <v>213.5565004251504</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>213.5565004251504</v>
@@ -29439,7 +29439,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>165.1038535265085</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>213.5565004251504</v>
@@ -29448,7 +29448,7 @@
         <v>168.7013833799563</v>
       </c>
       <c r="H28" t="n">
-        <v>213.5565004251504</v>
+        <v>165.8298073532316</v>
       </c>
       <c r="I28" t="n">
         <v>164.871265903193</v>
@@ -29463,19 +29463,19 @@
         <v>32.2422765859413</v>
       </c>
       <c r="M28" t="n">
-        <v>25.31224314158865</v>
+        <v>25.31224314158866</v>
       </c>
       <c r="N28" t="n">
-        <v>16.61326724243499</v>
+        <v>174.0562374648616</v>
       </c>
       <c r="O28" t="n">
-        <v>37.56488603590386</v>
+        <v>37.56488603590387</v>
       </c>
       <c r="P28" t="n">
         <v>58.55218850117777</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.5565004251504</v>
+        <v>127.2679355889264</v>
       </c>
       <c r="R28" t="n">
         <v>203.45731940625</v>
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29603,7 +29603,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H30" t="n">
         <v>125.7425338994548</v>
@@ -29612,7 +29612,7 @@
         <v>107.3883981334483</v>
       </c>
       <c r="J30" t="n">
-        <v>52.54373878807822</v>
+        <v>52.54373878807823</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.962098501482309</v>
+        <v>6.962098501482316</v>
       </c>
       <c r="R30" t="n">
         <v>134.7648615722126</v>
@@ -29642,22 +29642,22 @@
         <v>191.6042719936817</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>213.5565004251503</v>
       </c>
-      <c r="U30" t="n">
-        <v>159.6362311866059</v>
-      </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="W30" t="n">
-        <v>213.5565004251503</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>213.5565004251503</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>198.4090524763454</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.5565004251503</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29688,31 +29688,31 @@
         <v>165.8298073532316</v>
       </c>
       <c r="I31" t="n">
-        <v>164.871265903193</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="J31" t="n">
         <v>120.2826251961399</v>
       </c>
       <c r="K31" t="n">
+        <v>67.10067129221699</v>
+      </c>
+      <c r="L31" t="n">
+        <v>50.5261375502416</v>
+      </c>
+      <c r="M31" t="n">
+        <v>25.31224314158866</v>
+      </c>
+      <c r="N31" t="n">
+        <v>16.613267242435</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37.56488603590387</v>
+      </c>
+      <c r="P31" t="n">
         <v>213.5565004251503</v>
       </c>
-      <c r="L31" t="n">
-        <v>32.2422765859413</v>
-      </c>
-      <c r="M31" t="n">
-        <v>25.31224314158865</v>
-      </c>
-      <c r="N31" t="n">
-        <v>16.61326724243499</v>
-      </c>
-      <c r="O31" t="n">
-        <v>37.56488603590386</v>
-      </c>
-      <c r="P31" t="n">
-        <v>58.55218850117777</v>
-      </c>
       <c r="Q31" t="n">
-        <v>166.8459341060411</v>
+        <v>127.2679355889264</v>
       </c>
       <c r="R31" t="n">
         <v>213.5565004251503</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="C32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="D32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="E32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="F32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="G32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="H32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="I32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="J32" t="n">
-        <v>211.6414576447287</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="K32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="L32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="M32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="N32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="O32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="P32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.6386750175066</v>
+        <v>211.6414576447279</v>
       </c>
       <c r="R32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="S32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="T32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="U32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="V32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="W32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="X32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
     </row>
     <row r="33">
@@ -29831,10 +29831,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29843,7 +29843,7 @@
         <v>148.7453302346265</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7425338994548</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>107.3883981334483</v>
@@ -29873,28 +29873,28 @@
         <v>6.962098501482327</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>105.9711860499573</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T33" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="U33" t="n">
-        <v>213.6386750175066</v>
+        <v>57.51309762907144</v>
       </c>
       <c r="V33" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="W33" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
     </row>
     <row r="34">
@@ -29910,25 +29910,25 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>149.1326802795524</v>
+        <v>181.2266014751189</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="G34" t="n">
         <v>168.7013833799563</v>
       </c>
       <c r="H34" t="n">
-        <v>213.6386750175066</v>
+        <v>165.8298073532316</v>
       </c>
       <c r="I34" t="n">
-        <v>164.871265903193</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="J34" t="n">
-        <v>213.6386750175066</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K34" t="n">
         <v>67.100671292217</v>
@@ -29949,31 +29949,31 @@
         <v>58.55218850117778</v>
       </c>
       <c r="Q34" t="n">
-        <v>213.6386750175066</v>
+        <v>127.2679355889265</v>
       </c>
       <c r="R34" t="n">
         <v>203.4573194062501</v>
       </c>
       <c r="S34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="T34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="U34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="V34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="W34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="X34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.6386750175066</v>
+        <v>213.6386750175067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="C35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="D35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="E35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="F35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="G35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="H35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="I35" t="n">
-        <v>241.0620634130056</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="J35" t="n">
-        <v>76.89674521185628</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="K35" t="n">
-        <v>270.5695440616007</v>
+        <v>239.5549025982582</v>
       </c>
       <c r="L35" t="n">
-        <v>22.32625894293562</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>187.8230597548441</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>270.9284199014295</v>
+        <v>15.28703028436165</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.85821742192294</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="R35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5479044612095</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4718192209641</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="U35" t="n">
         <v>250.1506500079419</v>
       </c>
       <c r="V35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="W35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="X35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="Y35" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
     </row>
     <row r="36">
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>96.19490299630795</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>139.5609587276479</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30083,7 +30083,7 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>52.54373878807824</v>
@@ -30110,13 +30110,13 @@
         <v>6.962098501482327</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T36" t="n">
-        <v>214.973848927594</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.228117244257</v>
@@ -30128,7 +30128,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>215.4808707143269</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>183.0466003000694</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30198,13 +30198,13 @@
         <v>223.7641582032121</v>
       </c>
       <c r="U37" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="C38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="D38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="E38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="F38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="G38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="H38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0620634130056</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="J38" t="n">
         <v>76.89674521185628</v>
       </c>
       <c r="K38" t="n">
-        <v>187.0337742657008</v>
+        <v>6.899736547546162</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>182.2293007651521</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>187.823059754844</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>4.666038629460537</v>
       </c>
       <c r="P38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="Q38" t="n">
-        <v>270.9284199014295</v>
+        <v>89.85821742192294</v>
       </c>
       <c r="R38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="S38" t="n">
-        <v>270.9284199014295</v>
+        <v>227.5479044612095</v>
       </c>
       <c r="T38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="U38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="V38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="W38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="X38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="Y38" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>154.697656199941</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30317,7 +30317,7 @@
         <v>148.7453302346265</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7425338994548</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>107.3883981334483</v>
@@ -30347,13 +30347,13 @@
         <v>6.962098501482327</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.6042719936817</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30362,10 +30362,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>3.034776062957121</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>143.1066525427302</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30396,10 +30396,10 @@
         <v>168.7013833799563</v>
       </c>
       <c r="H40" t="n">
-        <v>203.6937574025904</v>
+        <v>165.8298073532316</v>
       </c>
       <c r="I40" t="n">
-        <v>164.871265903193</v>
+        <v>202.7352159525517</v>
       </c>
       <c r="J40" t="n">
         <v>120.2826251961399</v>
@@ -30435,13 +30435,13 @@
         <v>223.7641582032121</v>
       </c>
       <c r="U40" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>270.9284199014295</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30487,7 +30487,7 @@
         <v>241.0620634130056</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30496,7 +30496,7 @@
         <v>241.0620634130056</v>
       </c>
       <c r="O41" t="n">
-        <v>206.5312588044907</v>
+        <v>11.56450687558164</v>
       </c>
       <c r="P41" t="n">
         <v>241.0620634130056</v>
@@ -30505,7 +30505,7 @@
         <v>89.85821742192294</v>
       </c>
       <c r="R41" t="n">
-        <v>241.0620634130056</v>
+        <v>194.966751928909</v>
       </c>
       <c r="S41" t="n">
         <v>241.0620634130056</v>
@@ -30539,19 +30539,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H42" t="n">
         <v>125.7425338994548</v>
@@ -30590,7 +30590,7 @@
         <v>191.6042719936817</v>
       </c>
       <c r="T42" t="n">
-        <v>214.973848927594</v>
+        <v>205.1317122516018</v>
       </c>
       <c r="U42" t="n">
         <v>237.228117244257</v>
@@ -30599,13 +30599,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>230.7610258417227</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30627,13 +30627,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>204.260738550094</v>
       </c>
       <c r="G43" t="n">
         <v>168.7013833799563</v>
       </c>
       <c r="H43" t="n">
-        <v>241.0620634130056</v>
+        <v>165.8298073532316</v>
       </c>
       <c r="I43" t="n">
         <v>164.871265903193</v>
@@ -30663,10 +30663,10 @@
         <v>127.2679355889265</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4573194062501</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="S43" t="n">
-        <v>241.0620634130056</v>
+        <v>235.4486480391346</v>
       </c>
       <c r="T43" t="n">
         <v>223.7641582032121</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>239.2342017189262</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30721,28 +30721,28 @@
         <v>241.0620634130056</v>
       </c>
       <c r="K44" t="n">
+        <v>114.9368832493007</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>241.0620634130056</v>
       </c>
-      <c r="L44" t="n">
-        <v>220.045417756287</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>241.0620634130056</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.85821742192294</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="R44" t="n">
-        <v>241.0620634130056</v>
+        <v>194.966751928909</v>
       </c>
       <c r="S44" t="n">
         <v>227.5479044612095</v>
@@ -30779,22 +30779,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H45" t="n">
         <v>125.7425338994548</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>52.54373878807824</v>
@@ -30821,13 +30821,13 @@
         <v>6.962098501482327</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>191.6042719936817</v>
       </c>
       <c r="T45" t="n">
-        <v>81.36663088939216</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U45" t="n">
         <v>237.228117244257</v>
@@ -30839,10 +30839,10 @@
         <v>241.0620634130056</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>60.48355118986882</v>
       </c>
     </row>
     <row r="46">
@@ -30861,13 +30861,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>203.3960457419972</v>
+        <v>172.2540615175786</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.7013833799563</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="H46" t="n">
         <v>165.8298073532316</v>
@@ -30906,7 +30906,7 @@
         <v>235.4486480391346</v>
       </c>
       <c r="T46" t="n">
-        <v>241.0620634130056</v>
+        <v>223.7641582032121</v>
       </c>
       <c r="U46" t="n">
         <v>241.0620634130056</v>
@@ -30921,7 +30921,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>241.0620634130056</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4053626908107297</v>
+        <v>0.4053626908107296</v>
       </c>
       <c r="H11" t="n">
-        <v>4.151420657265387</v>
+        <v>4.151420657265385</v>
       </c>
       <c r="I11" t="n">
         <v>15.62774513748067</v>
       </c>
       <c r="J11" t="n">
-        <v>34.4046516791972</v>
+        <v>34.40465167919719</v>
       </c>
       <c r="K11" t="n">
-        <v>51.5636543812154</v>
+        <v>51.56365438121539</v>
       </c>
       <c r="L11" t="n">
-        <v>63.96927283011428</v>
+        <v>63.96927283011426</v>
       </c>
       <c r="M11" t="n">
-        <v>71.17814158281959</v>
+        <v>71.17814158281958</v>
       </c>
       <c r="N11" t="n">
-        <v>72.32987832808558</v>
+        <v>72.32987832808557</v>
       </c>
       <c r="O11" t="n">
-        <v>68.29905307133639</v>
+        <v>68.29905307133636</v>
       </c>
       <c r="P11" t="n">
-        <v>58.29166164194649</v>
+        <v>58.29166164194647</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.77461027728722</v>
+        <v>43.7746102772872</v>
       </c>
       <c r="R11" t="n">
         <v>25.46336412663952</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237202316849512</v>
+        <v>9.23720231684951</v>
       </c>
       <c r="T11" t="n">
         <v>1.77447517902397</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03242901526485837</v>
+        <v>0.03242901526485836</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2168881604653826</v>
+        <v>0.2168881604653825</v>
       </c>
       <c r="H12" t="n">
-        <v>2.094683023441985</v>
+        <v>2.094683023441984</v>
       </c>
       <c r="I12" t="n">
-        <v>7.467421314268655</v>
+        <v>7.467421314268653</v>
       </c>
       <c r="J12" t="n">
         <v>20.4911748446702</v>
@@ -31844,22 +31844,22 @@
         <v>35.02268159585083</v>
       </c>
       <c r="L12" t="n">
-        <v>47.09231747297704</v>
+        <v>47.09231747297703</v>
       </c>
       <c r="M12" t="n">
-        <v>54.95451328984714</v>
+        <v>54.95451328984713</v>
       </c>
       <c r="N12" t="n">
-        <v>37.86081558359621</v>
+        <v>37.86081558359618</v>
       </c>
       <c r="O12" t="n">
-        <v>51.60321070511232</v>
+        <v>51.6032107051123</v>
       </c>
       <c r="P12" t="n">
-        <v>41.41612601027117</v>
+        <v>41.41612601027116</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.68558343063375</v>
+        <v>27.68558343063374</v>
       </c>
       <c r="R12" t="n">
         <v>13.46609122608753</v>
@@ -31868,7 +31868,7 @@
         <v>4.028602454258309</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8742114888933619</v>
+        <v>0.8742114888933616</v>
       </c>
       <c r="U12" t="n">
         <v>0.01426895792535412</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1818317479886656</v>
+        <v>0.1818317479886655</v>
       </c>
       <c r="H13" t="n">
         <v>1.616649541208318</v>
       </c>
       <c r="I13" t="n">
-        <v>5.468176566786417</v>
+        <v>5.468176566786415</v>
       </c>
       <c r="J13" t="n">
         <v>12.85550458279865</v>
       </c>
       <c r="K13" t="n">
-        <v>21.12554308450132</v>
+        <v>21.12554308450131</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03342187824216</v>
+        <v>27.03342187824214</v>
       </c>
       <c r="M13" t="n">
         <v>28.50295300516872</v>
       </c>
       <c r="N13" t="n">
-        <v>27.82521648993827</v>
+        <v>27.82521648993826</v>
       </c>
       <c r="O13" t="n">
-        <v>25.70109107025248</v>
+        <v>25.70109107025247</v>
       </c>
       <c r="P13" t="n">
-        <v>21.99172341128369</v>
+        <v>21.99172341128368</v>
       </c>
       <c r="Q13" t="n">
         <v>15.22592937021453</v>
       </c>
       <c r="R13" t="n">
-        <v>8.175816595926724</v>
+        <v>8.175816595926721</v>
       </c>
       <c r="S13" t="n">
-        <v>3.168831462675198</v>
+        <v>3.168831462675197</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7769174686788435</v>
+        <v>0.7769174686788433</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009918095344836314</v>
+        <v>0.009918095344836311</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4053626908107297</v>
+        <v>0.4053626908107296</v>
       </c>
       <c r="H14" t="n">
-        <v>4.151420657265387</v>
+        <v>4.151420657265385</v>
       </c>
       <c r="I14" t="n">
         <v>15.62774513748067</v>
       </c>
       <c r="J14" t="n">
-        <v>34.4046516791972</v>
+        <v>34.40465167919719</v>
       </c>
       <c r="K14" t="n">
-        <v>51.5636543812154</v>
+        <v>51.56365438121539</v>
       </c>
       <c r="L14" t="n">
-        <v>63.96927283011428</v>
+        <v>63.96927283011426</v>
       </c>
       <c r="M14" t="n">
-        <v>71.17814158281959</v>
+        <v>71.17814158281958</v>
       </c>
       <c r="N14" t="n">
-        <v>72.32987832808558</v>
+        <v>72.32987832808557</v>
       </c>
       <c r="O14" t="n">
-        <v>68.29905307133639</v>
+        <v>68.29905307133636</v>
       </c>
       <c r="P14" t="n">
-        <v>58.29166164194649</v>
+        <v>58.29166164194647</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.77461027728722</v>
+        <v>43.7746102772872</v>
       </c>
       <c r="R14" t="n">
         <v>25.46336412663952</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237202316849512</v>
+        <v>9.23720231684951</v>
       </c>
       <c r="T14" t="n">
         <v>1.77447517902397</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03242901526485837</v>
+        <v>0.03242901526485836</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2168881604653826</v>
+        <v>0.2168881604653825</v>
       </c>
       <c r="H15" t="n">
-        <v>2.094683023441985</v>
+        <v>2.094683023441984</v>
       </c>
       <c r="I15" t="n">
-        <v>7.467421314268655</v>
+        <v>7.467421314268653</v>
       </c>
       <c r="J15" t="n">
         <v>20.4911748446702</v>
@@ -32081,22 +32081,22 @@
         <v>35.02268159585083</v>
       </c>
       <c r="L15" t="n">
-        <v>47.09231747297704</v>
+        <v>47.09231747297703</v>
       </c>
       <c r="M15" t="n">
-        <v>54.95451328984714</v>
+        <v>54.95451328984713</v>
       </c>
       <c r="N15" t="n">
-        <v>56.40899573437159</v>
+        <v>56.40899573437157</v>
       </c>
       <c r="O15" t="n">
-        <v>51.60321070511232</v>
+        <v>51.6032107051123</v>
       </c>
       <c r="P15" t="n">
-        <v>41.41612601027117</v>
+        <v>41.41612601027116</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.68558343063375</v>
+        <v>27.68558343063374</v>
       </c>
       <c r="R15" t="n">
         <v>13.46609122608753</v>
@@ -32105,7 +32105,7 @@
         <v>4.028602454258309</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8742114888933619</v>
+        <v>0.8742114888933616</v>
       </c>
       <c r="U15" t="n">
         <v>0.01426895792535412</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1818317479886656</v>
+        <v>0.1818317479886655</v>
       </c>
       <c r="H16" t="n">
         <v>1.616649541208318</v>
       </c>
       <c r="I16" t="n">
-        <v>5.468176566786417</v>
+        <v>5.468176566786415</v>
       </c>
       <c r="J16" t="n">
         <v>12.85550458279865</v>
       </c>
       <c r="K16" t="n">
-        <v>21.12554308450132</v>
+        <v>21.12554308450131</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03342187824216</v>
+        <v>27.03342187824214</v>
       </c>
       <c r="M16" t="n">
         <v>28.50295300516872</v>
       </c>
       <c r="N16" t="n">
-        <v>27.82521648993827</v>
+        <v>27.82521648993826</v>
       </c>
       <c r="O16" t="n">
-        <v>25.70109107025248</v>
+        <v>25.70109107025247</v>
       </c>
       <c r="P16" t="n">
-        <v>21.99172341128369</v>
+        <v>21.99172341128368</v>
       </c>
       <c r="Q16" t="n">
         <v>15.22592937021453</v>
       </c>
       <c r="R16" t="n">
-        <v>8.175816595926724</v>
+        <v>8.175816595926721</v>
       </c>
       <c r="S16" t="n">
-        <v>3.168831462675198</v>
+        <v>3.168831462675197</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7769174686788435</v>
+        <v>0.7769174686788433</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009918095344836314</v>
+        <v>0.009918095344836311</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4053626908107297</v>
+        <v>0.4053626908107296</v>
       </c>
       <c r="H17" t="n">
-        <v>4.151420657265387</v>
+        <v>4.151420657265385</v>
       </c>
       <c r="I17" t="n">
         <v>15.62774513748067</v>
       </c>
       <c r="J17" t="n">
-        <v>34.4046516791972</v>
+        <v>34.40465167919719</v>
       </c>
       <c r="K17" t="n">
-        <v>51.5636543812154</v>
+        <v>51.56365438121539</v>
       </c>
       <c r="L17" t="n">
-        <v>63.96927283011428</v>
+        <v>63.96927283011426</v>
       </c>
       <c r="M17" t="n">
-        <v>71.17814158281959</v>
+        <v>71.17814158281958</v>
       </c>
       <c r="N17" t="n">
-        <v>72.32987832808558</v>
+        <v>72.32987832808557</v>
       </c>
       <c r="O17" t="n">
-        <v>68.29905307133639</v>
+        <v>68.29905307133636</v>
       </c>
       <c r="P17" t="n">
-        <v>58.29166164194649</v>
+        <v>58.29166164194647</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.77461027728722</v>
+        <v>43.7746102772872</v>
       </c>
       <c r="R17" t="n">
         <v>25.46336412663952</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237202316849512</v>
+        <v>9.23720231684951</v>
       </c>
       <c r="T17" t="n">
         <v>1.77447517902397</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03242901526485837</v>
+        <v>0.03242901526485836</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2168881604653826</v>
+        <v>0.2168881604653825</v>
       </c>
       <c r="H18" t="n">
-        <v>2.094683023441985</v>
+        <v>2.094683023441984</v>
       </c>
       <c r="I18" t="n">
-        <v>7.467421314268655</v>
+        <v>7.467421314268653</v>
       </c>
       <c r="J18" t="n">
         <v>20.4911748446702</v>
@@ -32318,22 +32318,22 @@
         <v>35.02268159585083</v>
       </c>
       <c r="L18" t="n">
-        <v>47.09231747297704</v>
+        <v>47.09231747297703</v>
       </c>
       <c r="M18" t="n">
-        <v>54.95451328984714</v>
+        <v>54.95451328984713</v>
       </c>
       <c r="N18" t="n">
-        <v>37.86081558359632</v>
+        <v>37.86081558359621</v>
       </c>
       <c r="O18" t="n">
-        <v>51.60321070511232</v>
+        <v>51.6032107051123</v>
       </c>
       <c r="P18" t="n">
-        <v>41.41612601027117</v>
+        <v>41.41612601027116</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.68558343063375</v>
+        <v>27.68558343063374</v>
       </c>
       <c r="R18" t="n">
         <v>13.46609122608753</v>
@@ -32342,7 +32342,7 @@
         <v>4.028602454258309</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8742114888933619</v>
+        <v>0.8742114888933616</v>
       </c>
       <c r="U18" t="n">
         <v>0.01426895792535412</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1818317479886656</v>
+        <v>0.1818317479886655</v>
       </c>
       <c r="H19" t="n">
         <v>1.616649541208318</v>
       </c>
       <c r="I19" t="n">
-        <v>5.468176566786417</v>
+        <v>5.468176566786415</v>
       </c>
       <c r="J19" t="n">
         <v>12.85550458279865</v>
       </c>
       <c r="K19" t="n">
-        <v>21.12554308450132</v>
+        <v>21.12554308450131</v>
       </c>
       <c r="L19" t="n">
-        <v>27.03342187824216</v>
+        <v>27.03342187824214</v>
       </c>
       <c r="M19" t="n">
         <v>28.50295300516872</v>
       </c>
       <c r="N19" t="n">
-        <v>27.82521648993827</v>
+        <v>27.82521648993826</v>
       </c>
       <c r="O19" t="n">
-        <v>25.70109107025248</v>
+        <v>25.70109107025247</v>
       </c>
       <c r="P19" t="n">
-        <v>21.99172341128369</v>
+        <v>21.99172341128368</v>
       </c>
       <c r="Q19" t="n">
         <v>15.22592937021453</v>
       </c>
       <c r="R19" t="n">
-        <v>8.175816595926724</v>
+        <v>8.175816595926721</v>
       </c>
       <c r="S19" t="n">
-        <v>3.168831462675198</v>
+        <v>3.168831462675197</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7769174686788435</v>
+        <v>0.7769174686788433</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009918095344836314</v>
+        <v>0.009918095344836311</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4053626908107297</v>
+        <v>0.4053626908107296</v>
       </c>
       <c r="H20" t="n">
-        <v>4.151420657265387</v>
+        <v>4.151420657265385</v>
       </c>
       <c r="I20" t="n">
         <v>15.62774513748067</v>
       </c>
       <c r="J20" t="n">
-        <v>34.4046516791972</v>
+        <v>34.40465167919719</v>
       </c>
       <c r="K20" t="n">
-        <v>51.5636543812154</v>
+        <v>51.56365438121539</v>
       </c>
       <c r="L20" t="n">
-        <v>63.96927283011428</v>
+        <v>63.96927283011426</v>
       </c>
       <c r="M20" t="n">
-        <v>71.17814158281959</v>
+        <v>71.17814158281958</v>
       </c>
       <c r="N20" t="n">
-        <v>72.32987832808558</v>
+        <v>72.32987832808557</v>
       </c>
       <c r="O20" t="n">
-        <v>68.29905307133639</v>
+        <v>68.29905307133636</v>
       </c>
       <c r="P20" t="n">
-        <v>58.29166164194649</v>
+        <v>58.29166164194647</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.77461027728722</v>
+        <v>43.7746102772872</v>
       </c>
       <c r="R20" t="n">
         <v>25.46336412663952</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237202316849512</v>
+        <v>9.23720231684951</v>
       </c>
       <c r="T20" t="n">
         <v>1.77447517902397</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03242901526485837</v>
+        <v>0.03242901526485836</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2168881604653826</v>
+        <v>0.2168881604653825</v>
       </c>
       <c r="H21" t="n">
-        <v>2.094683023441985</v>
+        <v>2.094683023441984</v>
       </c>
       <c r="I21" t="n">
-        <v>7.467421314268655</v>
+        <v>7.467421314268653</v>
       </c>
       <c r="J21" t="n">
         <v>20.4911748446702</v>
@@ -32555,22 +32555,22 @@
         <v>35.02268159585083</v>
       </c>
       <c r="L21" t="n">
-        <v>47.09231747297704</v>
+        <v>47.09231747297703</v>
       </c>
       <c r="M21" t="n">
-        <v>54.95451328984714</v>
+        <v>54.95451328984713</v>
       </c>
       <c r="N21" t="n">
-        <v>56.40899573437159</v>
+        <v>37.86081558359621</v>
       </c>
       <c r="O21" t="n">
-        <v>51.60321070511232</v>
+        <v>51.6032107051123</v>
       </c>
       <c r="P21" t="n">
-        <v>41.41612601027117</v>
+        <v>41.41612601027116</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.68558343063375</v>
+        <v>27.68558343063374</v>
       </c>
       <c r="R21" t="n">
         <v>13.46609122608753</v>
@@ -32579,7 +32579,7 @@
         <v>4.028602454258309</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8742114888933619</v>
+        <v>0.8742114888933616</v>
       </c>
       <c r="U21" t="n">
         <v>0.01426895792535412</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1818317479886656</v>
+        <v>0.1818317479886655</v>
       </c>
       <c r="H22" t="n">
         <v>1.616649541208318</v>
       </c>
       <c r="I22" t="n">
-        <v>5.468176566786417</v>
+        <v>5.468176566786415</v>
       </c>
       <c r="J22" t="n">
         <v>12.85550458279865</v>
       </c>
       <c r="K22" t="n">
-        <v>21.12554308450132</v>
+        <v>21.12554308450131</v>
       </c>
       <c r="L22" t="n">
-        <v>27.03342187824216</v>
+        <v>27.03342187824214</v>
       </c>
       <c r="M22" t="n">
         <v>28.50295300516872</v>
       </c>
       <c r="N22" t="n">
-        <v>27.82521648993827</v>
+        <v>27.82521648993826</v>
       </c>
       <c r="O22" t="n">
-        <v>25.70109107025248</v>
+        <v>25.70109107025247</v>
       </c>
       <c r="P22" t="n">
-        <v>21.99172341128369</v>
+        <v>21.99172341128368</v>
       </c>
       <c r="Q22" t="n">
         <v>15.22592937021453</v>
       </c>
       <c r="R22" t="n">
-        <v>8.175816595926724</v>
+        <v>8.175816595926721</v>
       </c>
       <c r="S22" t="n">
-        <v>3.168831462675198</v>
+        <v>3.168831462675197</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7769174686788435</v>
+        <v>0.7769174686788433</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009918095344836314</v>
+        <v>0.009918095344836311</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4053626908107297</v>
+        <v>0.4053626908107296</v>
       </c>
       <c r="H23" t="n">
-        <v>4.151420657265387</v>
+        <v>4.151420657265385</v>
       </c>
       <c r="I23" t="n">
         <v>15.62774513748067</v>
       </c>
       <c r="J23" t="n">
-        <v>34.4046516791972</v>
+        <v>34.40465167919719</v>
       </c>
       <c r="K23" t="n">
-        <v>51.5636543812154</v>
+        <v>51.56365438121539</v>
       </c>
       <c r="L23" t="n">
-        <v>63.96927283011428</v>
+        <v>63.96927283011426</v>
       </c>
       <c r="M23" t="n">
-        <v>71.17814158281959</v>
+        <v>71.17814158281958</v>
       </c>
       <c r="N23" t="n">
-        <v>72.32987832808558</v>
+        <v>72.32987832808557</v>
       </c>
       <c r="O23" t="n">
-        <v>68.29905307133639</v>
+        <v>68.29905307133636</v>
       </c>
       <c r="P23" t="n">
-        <v>58.29166164194649</v>
+        <v>58.29166164194647</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.77461027728722</v>
+        <v>43.7746102772872</v>
       </c>
       <c r="R23" t="n">
         <v>25.46336412663952</v>
       </c>
       <c r="S23" t="n">
-        <v>9.237202316849512</v>
+        <v>9.23720231684951</v>
       </c>
       <c r="T23" t="n">
         <v>1.77447517902397</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03242901526485837</v>
+        <v>0.03242901526485836</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2168881604653826</v>
+        <v>0.2168881604653825</v>
       </c>
       <c r="H24" t="n">
-        <v>2.094683023441985</v>
+        <v>2.094683023441984</v>
       </c>
       <c r="I24" t="n">
-        <v>7.467421314268655</v>
+        <v>7.467421314268653</v>
       </c>
       <c r="J24" t="n">
         <v>20.4911748446702</v>
@@ -32792,22 +32792,22 @@
         <v>35.02268159585083</v>
       </c>
       <c r="L24" t="n">
-        <v>47.09231747297704</v>
+        <v>47.09231747297703</v>
       </c>
       <c r="M24" t="n">
-        <v>54.95451328984714</v>
+        <v>54.95451328984713</v>
       </c>
       <c r="N24" t="n">
-        <v>37.86081558359621</v>
+        <v>37.86081558359618</v>
       </c>
       <c r="O24" t="n">
-        <v>51.60321070511232</v>
+        <v>51.6032107051123</v>
       </c>
       <c r="P24" t="n">
-        <v>41.41612601027117</v>
+        <v>41.41612601027116</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.68558343063375</v>
+        <v>27.68558343063374</v>
       </c>
       <c r="R24" t="n">
         <v>13.46609122608753</v>
@@ -32816,7 +32816,7 @@
         <v>4.028602454258309</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8742114888933619</v>
+        <v>0.8742114888933616</v>
       </c>
       <c r="U24" t="n">
         <v>0.01426895792535412</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1818317479886656</v>
+        <v>0.1818317479886655</v>
       </c>
       <c r="H25" t="n">
         <v>1.616649541208318</v>
       </c>
       <c r="I25" t="n">
-        <v>5.468176566786417</v>
+        <v>5.468176566786415</v>
       </c>
       <c r="J25" t="n">
         <v>12.85550458279865</v>
       </c>
       <c r="K25" t="n">
-        <v>21.12554308450132</v>
+        <v>21.12554308450131</v>
       </c>
       <c r="L25" t="n">
-        <v>27.03342187824216</v>
+        <v>27.03342187824214</v>
       </c>
       <c r="M25" t="n">
         <v>28.50295300516872</v>
       </c>
       <c r="N25" t="n">
-        <v>27.82521648993827</v>
+        <v>27.82521648993826</v>
       </c>
       <c r="O25" t="n">
-        <v>25.70109107025248</v>
+        <v>25.70109107025247</v>
       </c>
       <c r="P25" t="n">
-        <v>21.99172341128369</v>
+        <v>21.99172341128368</v>
       </c>
       <c r="Q25" t="n">
         <v>15.22592937021453</v>
       </c>
       <c r="R25" t="n">
-        <v>8.175816595926724</v>
+        <v>8.175816595926721</v>
       </c>
       <c r="S25" t="n">
-        <v>3.168831462675198</v>
+        <v>3.168831462675197</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7769174686788435</v>
+        <v>0.7769174686788433</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009918095344836314</v>
+        <v>0.009918095344836311</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4053626908107297</v>
+        <v>0.4053626908107296</v>
       </c>
       <c r="H26" t="n">
-        <v>4.151420657265387</v>
+        <v>4.151420657265385</v>
       </c>
       <c r="I26" t="n">
         <v>15.62774513748067</v>
       </c>
       <c r="J26" t="n">
-        <v>34.4046516791972</v>
+        <v>34.40465167919719</v>
       </c>
       <c r="K26" t="n">
-        <v>51.5636543812154</v>
+        <v>51.56365438121539</v>
       </c>
       <c r="L26" t="n">
-        <v>63.96927283011428</v>
+        <v>63.96927283011426</v>
       </c>
       <c r="M26" t="n">
-        <v>71.17814158281959</v>
+        <v>71.17814158281958</v>
       </c>
       <c r="N26" t="n">
-        <v>72.32987832808558</v>
+        <v>72.32987832808557</v>
       </c>
       <c r="O26" t="n">
-        <v>68.29905307133639</v>
+        <v>68.29905307133636</v>
       </c>
       <c r="P26" t="n">
-        <v>58.29166164194649</v>
+        <v>58.29166164194647</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.77461027728722</v>
+        <v>43.7746102772872</v>
       </c>
       <c r="R26" t="n">
         <v>25.46336412663952</v>
       </c>
       <c r="S26" t="n">
-        <v>9.237202316849512</v>
+        <v>9.23720231684951</v>
       </c>
       <c r="T26" t="n">
         <v>1.77447517902397</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03242901526485837</v>
+        <v>0.03242901526485836</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2168881604653826</v>
+        <v>0.2168881604653825</v>
       </c>
       <c r="H27" t="n">
-        <v>2.094683023441985</v>
+        <v>2.094683023441984</v>
       </c>
       <c r="I27" t="n">
-        <v>7.467421314268655</v>
+        <v>7.467421314268653</v>
       </c>
       <c r="J27" t="n">
         <v>20.4911748446702</v>
@@ -33029,22 +33029,22 @@
         <v>35.02268159585083</v>
       </c>
       <c r="L27" t="n">
-        <v>47.09231747297704</v>
+        <v>47.09231747297703</v>
       </c>
       <c r="M27" t="n">
-        <v>54.95451328984714</v>
+        <v>54.95451328984713</v>
       </c>
       <c r="N27" t="n">
-        <v>56.40899573437159</v>
+        <v>56.40899573437157</v>
       </c>
       <c r="O27" t="n">
-        <v>51.60321070511232</v>
+        <v>51.6032107051123</v>
       </c>
       <c r="P27" t="n">
-        <v>41.41612601027117</v>
+        <v>41.41612601027116</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.68558343063375</v>
+        <v>27.68558343063374</v>
       </c>
       <c r="R27" t="n">
         <v>13.46609122608753</v>
@@ -33053,7 +33053,7 @@
         <v>4.028602454258309</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8742114888933619</v>
+        <v>0.8742114888933616</v>
       </c>
       <c r="U27" t="n">
         <v>0.01426895792535412</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1818317479886656</v>
+        <v>0.1818317479886655</v>
       </c>
       <c r="H28" t="n">
         <v>1.616649541208318</v>
       </c>
       <c r="I28" t="n">
-        <v>5.468176566786417</v>
+        <v>5.468176566786415</v>
       </c>
       <c r="J28" t="n">
         <v>12.85550458279865</v>
       </c>
       <c r="K28" t="n">
-        <v>21.12554308450132</v>
+        <v>21.12554308450131</v>
       </c>
       <c r="L28" t="n">
-        <v>27.03342187824216</v>
+        <v>27.03342187824214</v>
       </c>
       <c r="M28" t="n">
         <v>28.50295300516872</v>
       </c>
       <c r="N28" t="n">
-        <v>27.82521648993827</v>
+        <v>27.82521648993826</v>
       </c>
       <c r="O28" t="n">
-        <v>25.70109107025248</v>
+        <v>25.70109107025247</v>
       </c>
       <c r="P28" t="n">
-        <v>21.99172341128369</v>
+        <v>21.99172341128368</v>
       </c>
       <c r="Q28" t="n">
         <v>15.22592937021453</v>
       </c>
       <c r="R28" t="n">
-        <v>8.175816595926724</v>
+        <v>8.175816595926721</v>
       </c>
       <c r="S28" t="n">
-        <v>3.168831462675198</v>
+        <v>3.168831462675197</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7769174686788435</v>
+        <v>0.7769174686788433</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009918095344836314</v>
+        <v>0.009918095344836311</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4053626908107297</v>
+        <v>0.4053626908107296</v>
       </c>
       <c r="H29" t="n">
-        <v>4.151420657265387</v>
+        <v>4.151420657265385</v>
       </c>
       <c r="I29" t="n">
         <v>15.62774513748067</v>
       </c>
       <c r="J29" t="n">
-        <v>34.4046516791972</v>
+        <v>34.40465167919719</v>
       </c>
       <c r="K29" t="n">
-        <v>51.5636543812154</v>
+        <v>51.56365438121539</v>
       </c>
       <c r="L29" t="n">
-        <v>63.96927283011428</v>
+        <v>63.96927283011426</v>
       </c>
       <c r="M29" t="n">
-        <v>71.17814158281959</v>
+        <v>71.17814158281958</v>
       </c>
       <c r="N29" t="n">
-        <v>72.32987832808558</v>
+        <v>72.32987832808557</v>
       </c>
       <c r="O29" t="n">
-        <v>68.29905307133639</v>
+        <v>68.29905307133636</v>
       </c>
       <c r="P29" t="n">
-        <v>58.29166164194649</v>
+        <v>58.29166164194647</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.77461027728722</v>
+        <v>43.7746102772872</v>
       </c>
       <c r="R29" t="n">
         <v>25.46336412663952</v>
       </c>
       <c r="S29" t="n">
-        <v>9.237202316849512</v>
+        <v>9.23720231684951</v>
       </c>
       <c r="T29" t="n">
         <v>1.77447517902397</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03242901526485837</v>
+        <v>0.03242901526485836</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2168881604653826</v>
+        <v>0.2168881604653825</v>
       </c>
       <c r="H30" t="n">
-        <v>2.094683023441985</v>
+        <v>2.094683023441984</v>
       </c>
       <c r="I30" t="n">
-        <v>7.467421314268655</v>
+        <v>7.467421314268653</v>
       </c>
       <c r="J30" t="n">
         <v>20.4911748446702</v>
@@ -33266,22 +33266,22 @@
         <v>35.02268159585083</v>
       </c>
       <c r="L30" t="n">
-        <v>47.09231747297704</v>
+        <v>47.09231747297703</v>
       </c>
       <c r="M30" t="n">
-        <v>54.95451328984714</v>
+        <v>54.95451328984713</v>
       </c>
       <c r="N30" t="n">
-        <v>56.40899573437159</v>
+        <v>56.40899573437157</v>
       </c>
       <c r="O30" t="n">
-        <v>51.60321070511232</v>
+        <v>51.6032107051123</v>
       </c>
       <c r="P30" t="n">
-        <v>41.41612601027117</v>
+        <v>41.41612601027116</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.68558343063375</v>
+        <v>27.68558343063374</v>
       </c>
       <c r="R30" t="n">
         <v>13.46609122608753</v>
@@ -33290,7 +33290,7 @@
         <v>4.028602454258309</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8742114888933619</v>
+        <v>0.8742114888933616</v>
       </c>
       <c r="U30" t="n">
         <v>0.01426895792535412</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1818317479886656</v>
+        <v>0.1818317479886655</v>
       </c>
       <c r="H31" t="n">
         <v>1.616649541208318</v>
       </c>
       <c r="I31" t="n">
-        <v>5.468176566786417</v>
+        <v>5.468176566786415</v>
       </c>
       <c r="J31" t="n">
         <v>12.85550458279865</v>
       </c>
       <c r="K31" t="n">
-        <v>21.12554308450132</v>
+        <v>21.12554308450131</v>
       </c>
       <c r="L31" t="n">
-        <v>27.03342187824216</v>
+        <v>27.03342187824214</v>
       </c>
       <c r="M31" t="n">
         <v>28.50295300516872</v>
       </c>
       <c r="N31" t="n">
-        <v>27.82521648993827</v>
+        <v>27.82521648993826</v>
       </c>
       <c r="O31" t="n">
-        <v>25.70109107025248</v>
+        <v>25.70109107025247</v>
       </c>
       <c r="P31" t="n">
-        <v>21.99172341128369</v>
+        <v>21.99172341128368</v>
       </c>
       <c r="Q31" t="n">
         <v>15.22592937021453</v>
       </c>
       <c r="R31" t="n">
-        <v>8.175816595926724</v>
+        <v>8.175816595926721</v>
       </c>
       <c r="S31" t="n">
-        <v>3.168831462675198</v>
+        <v>3.168831462675197</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7769174686788435</v>
+        <v>0.7769174686788433</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009918095344836314</v>
+        <v>0.009918095344836311</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34693,10 +34693,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.1299154531910392</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,7 +34790,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="O3" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>3.199249640013477</v>
@@ -34942,10 +34942,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="N5" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34978,7 +34978,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1299154531910435</v>
+        <v>0.129915453191039</v>
       </c>
     </row>
     <row r="6">
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L6" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M6" t="n">
-        <v>3.06998702829587</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
-        <v>0.167855661100898</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.23654123130675</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>170.9136512231825</v>
       </c>
       <c r="L11" t="n">
+        <v>46.9787135954217</v>
+      </c>
+      <c r="M11" t="n">
         <v>188.2377854165522</v>
       </c>
-      <c r="M11" t="n">
-        <v>81.44050674890235</v>
-      </c>
       <c r="N11" t="n">
-        <v>188.2377854165522</v>
+        <v>142.3513142620104</v>
       </c>
       <c r="O11" t="n">
-        <v>188.2377854165522</v>
+        <v>34.33775259513753</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>162.5263574863669</v>
       </c>
       <c r="Q11" t="n">
-        <v>87.95517034880569</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.22959963128384</v>
+        <v>38.22959963128383</v>
       </c>
       <c r="L12" t="n">
         <v>118.3605178981721</v>
@@ -35504,7 +35504,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P12" t="n">
-        <v>84.33122304346756</v>
+        <v>84.33122304346755</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1964671057605187</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.35620679875626</v>
+        <v>11.35620679875623</v>
       </c>
       <c r="D13" t="n">
-        <v>32.6307375200179</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.13724655850362</v>
+        <v>36.13724655850359</v>
       </c>
       <c r="F13" t="n">
-        <v>38.88650555228196</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.98358041749705</v>
+        <v>11.98358041749702</v>
       </c>
       <c r="I13" t="n">
-        <v>12.94212186753561</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.53076257458871</v>
       </c>
       <c r="K13" t="n">
-        <v>76.63658192430846</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>152.50114462914</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.2001205282936</v>
       </c>
       <c r="O13" t="n">
         <v>140.2485017348247</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>44.51722331436039</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.54545218180213</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>46.97871359542171</v>
+        <v>130.4968984999897</v>
       </c>
       <c r="M14" t="n">
-        <v>81.44050674890235</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="N14" t="n">
-        <v>188.2377854165522</v>
+        <v>75.84674775921037</v>
       </c>
       <c r="O14" t="n">
         <v>188.2377854165522</v>
       </c>
       <c r="P14" t="n">
-        <v>152.4956130524373</v>
+        <v>162.5263574863669</v>
       </c>
       <c r="Q14" t="n">
-        <v>87.95517034880569</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.22959963128384</v>
+        <v>38.22959963128383</v>
       </c>
       <c r="L15" t="n">
         <v>118.3605178981721</v>
@@ -35741,7 +35741,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P15" t="n">
-        <v>84.33122304346756</v>
+        <v>84.33122304346755</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,28 +35778,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1964671057605187</v>
+        <v>0.1964671057604903</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.35620679875623</v>
       </c>
       <c r="D16" t="n">
-        <v>32.6307375200179</v>
+        <v>32.63073752001787</v>
       </c>
       <c r="E16" t="n">
-        <v>36.13724655850362</v>
+        <v>36.13724655850359</v>
       </c>
       <c r="F16" t="n">
-        <v>38.88650555228196</v>
+        <v>38.88650555228193</v>
       </c>
       <c r="G16" t="n">
-        <v>9.112004390772311</v>
+        <v>9.112004390772283</v>
       </c>
       <c r="H16" t="n">
-        <v>11.98358041749705</v>
+        <v>11.98358041749702</v>
       </c>
       <c r="I16" t="n">
-        <v>12.94212186753561</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.50114462914</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>122.2551275517007</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4165695886055</v>
+        <v>140.2485017348247</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35878,25 +35878,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.47877388442274</v>
+        <v>56.47877388442273</v>
       </c>
       <c r="J17" t="n">
-        <v>160.2289388932512</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>159.4512092105051</v>
       </c>
       <c r="L17" t="n">
-        <v>46.97871359542171</v>
+        <v>46.9787135954217</v>
       </c>
       <c r="M17" t="n">
-        <v>81.44050674890235</v>
+        <v>81.44050674890234</v>
       </c>
       <c r="N17" t="n">
-        <v>188.2377854165522</v>
+        <v>75.84674775921037</v>
       </c>
       <c r="O17" t="n">
-        <v>34.33775259513756</v>
+        <v>34.33775259513753</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35911,7 +35911,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>75.06901807646429</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.22959963128384</v>
+        <v>38.22959963128383</v>
       </c>
       <c r="L18" t="n">
         <v>118.3605178981721</v>
       </c>
       <c r="M18" t="n">
-        <v>183.3278732149847</v>
+        <v>183.3278732149849</v>
       </c>
       <c r="N18" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="O18" t="n">
         <v>132.8585753742109</v>
       </c>
       <c r="P18" t="n">
-        <v>84.33122304346756</v>
+        <v>84.33122304346755</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.47877388442274</v>
+        <v>56.47877388442273</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,34 +36124,34 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>46.97871359542171</v>
+        <v>46.9787135954217</v>
       </c>
       <c r="M20" t="n">
-        <v>81.44050674890235</v>
+        <v>81.44050674890234</v>
       </c>
       <c r="N20" t="n">
-        <v>75.84674775921039</v>
+        <v>75.84674775921037</v>
       </c>
       <c r="O20" t="n">
-        <v>34.33775259513756</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>188.2377854165522</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
-        <v>102.5740853685193</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>69.99293283621887</v>
       </c>
       <c r="T20" t="n">
-        <v>42.06808908479983</v>
+        <v>38.13232892139091</v>
       </c>
       <c r="U20" t="n">
-        <v>47.39018728948643</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.22959963128384</v>
+        <v>38.22959963128383</v>
       </c>
       <c r="L21" t="n">
         <v>118.3605178981721</v>
@@ -36215,7 +36215,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P21" t="n">
-        <v>84.33122304346756</v>
+        <v>84.33122304346755</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.47877388442274</v>
+        <v>56.47877388442273</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>99.63264413827694</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>46.97871359542171</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="M23" t="n">
-        <v>81.44050674890235</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="N23" t="n">
-        <v>75.84674775921039</v>
+        <v>75.84674775921037</v>
       </c>
       <c r="O23" t="n">
-        <v>34.33775259513756</v>
+        <v>34.33775259513753</v>
       </c>
       <c r="P23" t="n">
-        <v>188.2377854165522</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.57315637685484</v>
+        <v>102.5740853685193</v>
       </c>
       <c r="S23" t="n">
-        <v>69.99293283621887</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>75.06901807646429</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.39018728948643</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.22959963128384</v>
+        <v>38.22959963128383</v>
       </c>
       <c r="L24" t="n">
         <v>118.3605178981721</v>
@@ -36452,7 +36452,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P24" t="n">
-        <v>84.33122304346756</v>
+        <v>84.33122304346755</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>136.6597552132941</v>
       </c>
       <c r="K26" t="n">
-        <v>206.6567638776043</v>
+        <v>206.6567638776042</v>
       </c>
       <c r="L26" t="n">
         <v>260.5352140205721</v>
       </c>
       <c r="M26" t="n">
-        <v>294.9970071740528</v>
+        <v>294.9970071740527</v>
       </c>
       <c r="N26" t="n">
-        <v>289.4032481843608</v>
+        <v>289.4032481843607</v>
       </c>
       <c r="O26" t="n">
-        <v>247.894253020288</v>
+        <v>247.8942530202879</v>
       </c>
       <c r="P26" t="n">
-        <v>198.2694701407888</v>
+        <v>198.2694701407887</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.6982830032275</v>
+        <v>123.6982830032274</v>
       </c>
       <c r="R26" t="n">
-        <v>18.58974849624138</v>
+        <v>18.58974849624133</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.22959963128384</v>
+        <v>38.22959963128383</v>
       </c>
       <c r="L27" t="n">
         <v>118.3605178981721</v>
@@ -36689,7 +36689,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P27" t="n">
-        <v>84.33122304346756</v>
+        <v>84.33122304346755</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36735,16 +36735,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>23.42771231428356</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>74.62961820670375</v>
+        <v>74.62961820670373</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.72669307191885</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>157.4429702224266</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.28856483622396</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>206.6567638776042</v>
       </c>
       <c r="L29" t="n">
-        <v>260.5352140205721</v>
+        <v>260.535214020572</v>
       </c>
       <c r="M29" t="n">
         <v>294.9970071740527</v>
@@ -36853,7 +36853,7 @@
         <v>123.6982830032274</v>
       </c>
       <c r="R29" t="n">
-        <v>18.58974849624132</v>
+        <v>18.58974849624131</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.22959963128384</v>
+        <v>38.22959963128383</v>
       </c>
       <c r="L30" t="n">
         <v>118.3605178981721</v>
@@ -36926,7 +36926,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P30" t="n">
-        <v>84.33122304346756</v>
+        <v>84.33122304346755</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.93957976018226</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36984,16 +36984,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.68523452195734</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>146.4558291329334</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>18.28386096430029</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0043119239726</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.57799851711459</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>10.0991810189003</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>134.7447124328724</v>
+        <v>136.7419298056504</v>
       </c>
       <c r="K32" t="n">
         <v>206.7389384699605</v>
@@ -37087,10 +37087,10 @@
         <v>198.351644733145</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.7804575955837</v>
+        <v>121.7832402228049</v>
       </c>
       <c r="R32" t="n">
-        <v>18.67192308859759</v>
+        <v>18.67192308859762</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,25 +37206,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3.950030028841689</v>
+        <v>36.04395122440817</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.96253380528168</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>74.71179279906002</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.80886766427508</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.76740911431366</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35604982136677</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.37073942858018</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>29.86635648842396</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>194.0316746895733</v>
       </c>
       <c r="K35" t="n">
-        <v>263.6698075140545</v>
+        <v>232.655166050712</v>
       </c>
       <c r="L35" t="n">
-        <v>69.30497253835729</v>
+        <v>46.97871359542167</v>
       </c>
       <c r="M35" t="n">
         <v>81.44050674890229</v>
       </c>
       <c r="N35" t="n">
-        <v>263.6698075140545</v>
+        <v>75.84674775921033</v>
       </c>
       <c r="O35" t="n">
         <v>34.3377525951375</v>
       </c>
       <c r="P35" t="n">
-        <v>255.6413896170679</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>181.0702024795067</v>
       </c>
       <c r="R35" t="n">
-        <v>75.9616679725205</v>
+        <v>75.96166797252056</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>43.38051544022011</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>48.45660068046553</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37437,13 +37437,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.86395004935882</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>37.8639500493587</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>29.86635648842396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>180.1340377181546</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>46.97871359542167</v>
       </c>
       <c r="M38" t="n">
-        <v>81.44050674890229</v>
+        <v>263.6698075140544</v>
       </c>
       <c r="N38" t="n">
-        <v>75.84674775921033</v>
+        <v>263.6698075140544</v>
       </c>
       <c r="O38" t="n">
-        <v>34.3377525951375</v>
+        <v>39.00379122459804</v>
       </c>
       <c r="P38" t="n">
         <v>255.6413896170679</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.0702024795066</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>75.9616679725205</v>
+        <v>75.96166797252056</v>
       </c>
       <c r="S38" t="n">
-        <v>43.38051544022005</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>48.45660068046547</v>
+        <v>48.45660068046553</v>
       </c>
       <c r="U38" t="n">
-        <v>20.77776989348761</v>
+        <v>20.77776989348767</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37692,10 +37692,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>37.86395004935882</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>37.8639500493587</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>234.1623268654595</v>
       </c>
       <c r="L41" t="n">
-        <v>46.97871359542167</v>
+        <v>288.0407770084273</v>
       </c>
       <c r="M41" t="n">
         <v>81.44050674890229</v>
@@ -37792,7 +37792,7 @@
         <v>316.908811172216</v>
       </c>
       <c r="O41" t="n">
-        <v>240.8690113996282</v>
+        <v>45.90225947071914</v>
       </c>
       <c r="P41" t="n">
         <v>225.775033128644</v>
@@ -37801,7 +37801,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.09531148409658</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>13.51415895179613</v>
@@ -37923,13 +37923,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>65.33385633164733</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>75.23225605977407</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37959,10 +37959,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.60474400675558</v>
       </c>
       <c r="S43" t="n">
-        <v>5.613415373871016</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.09292890475783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38017,28 +38017,28 @@
         <v>164.1653182011493</v>
       </c>
       <c r="K44" t="n">
-        <v>234.1623268654595</v>
+        <v>108.0371467017545</v>
       </c>
       <c r="L44" t="n">
-        <v>267.0241313517086</v>
+        <v>46.97871359542167</v>
       </c>
       <c r="M44" t="n">
-        <v>81.44050674890229</v>
+        <v>322.5025701619079</v>
       </c>
       <c r="N44" t="n">
-        <v>316.908811172216</v>
+        <v>75.84674775921033</v>
       </c>
       <c r="O44" t="n">
-        <v>34.3377525951375</v>
+        <v>275.3998160081431</v>
       </c>
       <c r="P44" t="n">
         <v>225.775033128644</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.2038459910827</v>
       </c>
       <c r="R44" t="n">
-        <v>46.09531148409658</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38157,13 +38157,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>61.71990452977219</v>
+        <v>30.57792030535359</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.36068003304933</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.29790520979352</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.92079059883721</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
